--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\AgilePM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -13,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DevelopmentEnvironment!$A$1:$B$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$35</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
   <si>
     <t>Anodiam</t>
   </si>
@@ -131,13 +136,157 @@
   </si>
   <si>
     <t>IntelliJ Idea</t>
+  </si>
+  <si>
+    <t>User Id</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>React JS</t>
+  </si>
+  <si>
+    <t>GCP</t>
+  </si>
+  <si>
+    <t>CICD</t>
+  </si>
+  <si>
+    <t>K8s Monitoring</t>
+  </si>
+  <si>
+    <t>Service Discovery</t>
+  </si>
+  <si>
+    <t>Java Programming Tutorial</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1kkvalOcSog&amp;list=PLsyeobzWxl7pFZoGT1NbZJpywedeyzyaf</t>
+  </si>
+  <si>
+    <t>Telusko</t>
+  </si>
+  <si>
+    <t>youtube: Telusko channel</t>
+  </si>
+  <si>
+    <t>https://courses.telusko.com/learn/Hibernate-Tutorial-for-Beginners?</t>
+  </si>
+  <si>
+    <t>telusko.com</t>
+  </si>
+  <si>
+    <t>https://courses.telusko.com/learn/Spring5?</t>
+  </si>
+  <si>
+    <t>Hibernate-Tutorial-for-Beginners</t>
+  </si>
+  <si>
+    <t>Spring5 and SpringBoot2.0</t>
+  </si>
+  <si>
+    <t>Servlet JSP</t>
+  </si>
+  <si>
+    <t>https://courses.telusko.com/learn/Servlet-and-JSP-Tutorial-for-Beginners-2018?</t>
+  </si>
+  <si>
+    <t>anzie.comms@gmail.com</t>
+  </si>
+  <si>
+    <t>Focu$123</t>
+  </si>
+  <si>
+    <t>https://courses.telusko.com/learn/Python?</t>
+  </si>
+  <si>
+    <t>Python Tutorial for Beginners</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UB1O30fR-EE</t>
+  </si>
+  <si>
+    <t>HTML Crash Course</t>
+  </si>
+  <si>
+    <t>CSS Crash Course</t>
+  </si>
+  <si>
+    <t>Traversy Media Channel</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yfoY53QXEnI</t>
+  </si>
+  <si>
+    <t>Youtube: Romanian Coder Channel</t>
+  </si>
+  <si>
+    <t>Beyond Java 8</t>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=otinfgwkMbY</t>
+  </si>
+  <si>
+    <t>Spring Boot Security</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EPd-u8ibXBY&amp;list=PLVApX3evDwJ1d0lKKHssPQvzv2Ao3e__Q</t>
+  </si>
+  <si>
+    <t>udemy.com</t>
+  </si>
+  <si>
+    <t>susantadas.starit@gmail.com</t>
+  </si>
+  <si>
+    <t>AWS2017$</t>
+  </si>
+  <si>
+    <t>Mumshaad Muhammed</t>
+  </si>
+  <si>
+    <t>Docker Basics</t>
+  </si>
+  <si>
+    <t>DevOps Bootcamp</t>
+  </si>
+  <si>
+    <t>Gaurav Shah</t>
+  </si>
+  <si>
+    <t>Udemy.com</t>
+  </si>
+  <si>
+    <t>Coursera.com</t>
+  </si>
+  <si>
+    <t>Youtube.com</t>
+  </si>
+  <si>
+    <t>1120anirnan@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -211,6 +360,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -226,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -264,6 +420,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -272,7 +439,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -292,7 +459,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -300,6 +466,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,9 +481,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -321,6 +494,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -521,7 +702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -531,7 +712,7 @@
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -540,34 +721,34 @@
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -584,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -592,28 +773,28 @@
         <v>7</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>44002</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -631,304 +812,668 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="D1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="16" t="s">
+      <c r="C2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="B10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="B11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="18" t="s">
+      <c r="B13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="B14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="B17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="B18" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="18" t="s">
+      <c r="B25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C24"/>
+  <autoFilter ref="A1:C35"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId7"/>
+    <hyperlink ref="E8" r:id="rId8"/>
+    <hyperlink ref="E9" r:id="rId9"/>
+    <hyperlink ref="C25" r:id="rId10"/>
+    <hyperlink ref="E25" r:id="rId11"/>
+    <hyperlink ref="C10" r:id="rId12"/>
+    <hyperlink ref="C11" r:id="rId13"/>
+    <hyperlink ref="C13" r:id="rId14"/>
+    <hyperlink ref="C14" r:id="rId15"/>
+    <hyperlink ref="C15" r:id="rId16"/>
+    <hyperlink ref="E2" r:id="rId17"/>
+    <hyperlink ref="E17" r:id="rId18"/>
+    <hyperlink ref="E18" r:id="rId19"/>
+    <hyperlink ref="E19" r:id="rId20"/>
+    <hyperlink ref="E21" r:id="rId21"/>
+    <hyperlink ref="E20" r:id="rId22"/>
+    <hyperlink ref="E23" r:id="rId23"/>
+    <hyperlink ref="E24" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId28"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B19"/>

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DevelopmentEnvironment!$A$1:$B$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$36</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
   <si>
     <t>Anodiam</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>1120anirnan@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LKidsEzqwXw&amp;list=PLgzDdh90-m_TKIz4JNuqh3QarIdKiTS3q</t>
+  </si>
+  <si>
+    <t>Youtube: *****</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -470,6 +476,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,12 +494,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -722,31 +729,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -816,11 +823,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -862,7 +869,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>75</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -885,7 +892,7 @@
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -901,7 +908,7 @@
       <c r="A5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="12"/>
@@ -913,7 +920,7 @@
       <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -929,7 +936,7 @@
       <c r="A7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -992,7 +999,7 @@
       <c r="B10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -1005,10 +1012,10 @@
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1036,7 +1043,7 @@
       <c r="B13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -1052,7 +1059,7 @@
       <c r="B14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -1061,98 +1068,94 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>73</v>
+    <row r="15" spans="1:6" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>76</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="17" t="s">
         <v>75</v>
       </c>
       <c r="F20" s="13" t="s">
@@ -1161,14 +1164,14 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="17" t="s">
         <v>75</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -1177,114 +1180,122 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="17" t="s">
         <v>75</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="20" t="s">
+    <row r="27" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="21" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="17" t="s">
         <v>84</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="21"/>
+      <c r="E29" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1292,7 +1303,7 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1300,7 +1311,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1308,7 +1319,7 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="21"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1316,7 +1327,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1324,7 +1335,7 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1332,11 +1343,19 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="21"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="8"/>
     </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C35"/>
+  <autoFilter ref="A1:C36"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
@@ -1347,27 +1366,28 @@
     <hyperlink ref="E7" r:id="rId7"/>
     <hyperlink ref="E8" r:id="rId8"/>
     <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="C25" r:id="rId10"/>
-    <hyperlink ref="E25" r:id="rId11"/>
+    <hyperlink ref="C26" r:id="rId10"/>
+    <hyperlink ref="E26" r:id="rId11"/>
     <hyperlink ref="C10" r:id="rId12"/>
     <hyperlink ref="C11" r:id="rId13"/>
     <hyperlink ref="C13" r:id="rId14"/>
     <hyperlink ref="C14" r:id="rId15"/>
-    <hyperlink ref="C15" r:id="rId16"/>
+    <hyperlink ref="C16" r:id="rId16"/>
     <hyperlink ref="E2" r:id="rId17"/>
-    <hyperlink ref="E17" r:id="rId18"/>
-    <hyperlink ref="E18" r:id="rId19"/>
-    <hyperlink ref="E19" r:id="rId20"/>
-    <hyperlink ref="E21" r:id="rId21"/>
-    <hyperlink ref="E20" r:id="rId22"/>
-    <hyperlink ref="E23" r:id="rId23"/>
-    <hyperlink ref="E24" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E18" r:id="rId18"/>
+    <hyperlink ref="E19" r:id="rId19"/>
+    <hyperlink ref="E20" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E21" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E27" r:id="rId25"/>
+    <hyperlink ref="E28" r:id="rId26"/>
+    <hyperlink ref="E29" r:id="rId27"/>
+    <hyperlink ref="C15" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId28"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
   <si>
     <t>Anodiam</t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>Youtube: *****</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fvEWoy1xOvo</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Jar file Creation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cxZZnx1SpP4</t>
   </si>
 </sst>
 </file>
@@ -826,8 +838,8 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1299,18 +1311,30 @@
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="E31" s="17"/>
       <c r="F31" s="8"/>
     </row>

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
     <t>Anodiam</t>
   </si>
@@ -298,6 +298,48 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=cxZZnx1SpP4</t>
+  </si>
+  <si>
+    <t>Install Apache</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TDpllMVuoeE</t>
+  </si>
+  <si>
+    <t>GKE Spring Boot</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jSYxW_c3M_E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SzbeDqBSRkc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FlSup_eelYE</t>
+  </si>
+  <si>
+    <t>Java Jar Docker</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fvEWoy1xOvo&amp;t=537s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e3YERpG2rMs</t>
+  </si>
+  <si>
+    <t>Tomcat Install</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=install+apache+tomcat+on+windows+10&amp;oq=install+apache2+tomcat+on+windows&amp;aqs=chrome.2.69i57j0l7.13622j0j4&amp;sourceid=chrome&amp;ie=UTF-8#kpvalbx=_ixJvX_69LvyP4-EPpaWmmAo32</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Jar on Tomcat</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SC5xAw_FInI</t>
   </si>
 </sst>
 </file>
@@ -835,11 +877,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1339,17 +1381,27 @@
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="E32" s="17"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="C33" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="17"/>
       <c r="F33" s="8"/>
@@ -1357,15 +1409,21 @@
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="C34" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="17"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="A35" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="C35" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="D35" s="8"/>
       <c r="E35" s="17"/>
       <c r="F35" s="8"/>
@@ -1373,10 +1431,36 @@
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="D36" s="8"/>
       <c r="E36" s="17"/>
       <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C36"/>
@@ -1409,9 +1493,12 @@
     <hyperlink ref="E28" r:id="rId26"/>
     <hyperlink ref="E29" r:id="rId27"/>
     <hyperlink ref="C15" r:id="rId28"/>
+    <hyperlink ref="C35" r:id="rId29"/>
+    <hyperlink ref="C33" r:id="rId30"/>
+    <hyperlink ref="C34" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId29"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId32"/>
 </worksheet>
 </file>
 

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>Anodiam</t>
   </si>
@@ -340,13 +340,28 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=SC5xAw_FInI</t>
+  </si>
+  <si>
+    <t>MySQL on GKE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YYpuvguAdOY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZdNlIbmG0A0</t>
+  </si>
+  <si>
+    <t>Kubectl on GKE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZiJkEAfvFUc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -427,6 +442,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -499,7 +520,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -537,6 +558,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,6 +570,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -783,31 +807,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -877,11 +901,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1395,7 +1419,7 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="27" t="s">
         <v>93</v>
       </c>
       <c r="B33" s="8"/>
@@ -1460,6 +1484,28 @@
       </c>
       <c r="C39" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="C41" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1496,9 +1542,10 @@
     <hyperlink ref="C35" r:id="rId29"/>
     <hyperlink ref="C33" r:id="rId30"/>
     <hyperlink ref="C34" r:id="rId31"/>
+    <hyperlink ref="C40" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId33"/>
 </worksheet>
 </file>
 

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
   <si>
     <t>Anodiam</t>
   </si>
@@ -345,9 +345,6 @@
     <t>MySQL on GKE</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YYpuvguAdOY</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ZdNlIbmG0A0</t>
   </si>
   <si>
@@ -355,6 +352,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ZiJkEAfvFUc</t>
+  </si>
+  <si>
+    <t>Connect GCP MySQL from GKE</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/sql/docs/mysql/connect-kubernetes-engine</t>
+  </si>
+  <si>
+    <t>Google Docs</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -558,7 +564,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,8 +577,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -807,31 +812,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -904,8 +909,8 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1419,7 +1424,7 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B33" s="8"/>
@@ -1487,25 +1492,30 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="22" t="s">
         <v>105</v>
       </c>
       <c r="C40" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="C41" s="21" t="s">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
-        <v>108</v>
-      </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
+    <workbookView minimized="1" xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1511,7 +1511,7 @@
       <c r="A42" t="s">
         <v>109</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -1553,9 +1553,10 @@
     <hyperlink ref="C33" r:id="rId30"/>
     <hyperlink ref="C34" r:id="rId31"/>
     <hyperlink ref="C40" r:id="rId32"/>
+    <hyperlink ref="C42" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId33"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId34"/>
 </worksheet>
 </file>
 

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
+    <workbookView minimized="1" xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="TrainingRequirements" sheetId="2" r:id="rId2"/>
     <sheet name="DevelopmentEnvironment" sheetId="3" r:id="rId3"/>
+    <sheet name="DockerCheatSheet" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DevelopmentEnvironment!$A$1:$B$19</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
   <si>
     <t>Anodiam</t>
   </si>
@@ -361,13 +362,109 @@
   </si>
   <si>
     <t>Google Docs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fvEWoy1xOvo&amp;t=541s</t>
+  </si>
+  <si>
+    <t>Deploy Spring Boot &amp; MySQL in Docker</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>Install and Validate Docker</t>
+  </si>
+  <si>
+    <t>docker version</t>
+  </si>
+  <si>
+    <t>Should see both client and server details. 18.06 =&gt; June 2018, ce/ee</t>
+  </si>
+  <si>
+    <t>docker run hello-world</t>
+  </si>
+  <si>
+    <t>docker system info</t>
+  </si>
+  <si>
+    <t>Docker deamon info</t>
+  </si>
+  <si>
+    <t>doker -v</t>
+  </si>
+  <si>
+    <t>Only client version</t>
+  </si>
+  <si>
+    <t>docker</t>
+  </si>
+  <si>
+    <t>help page</t>
+  </si>
+  <si>
+    <t>docker run alpine:3.6 uptime</t>
+  </si>
+  <si>
+    <t>Run Containers</t>
+  </si>
+  <si>
+    <t>docker system events</t>
+  </si>
+  <si>
+    <t>docker container run alpine ps</t>
+  </si>
+  <si>
+    <t>docker ps</t>
+  </si>
+  <si>
+    <t>docker ps -l</t>
+  </si>
+  <si>
+    <t>docker ps -a</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>docker ps -n 3</t>
+  </si>
+  <si>
+    <t>last 3</t>
+  </si>
+  <si>
+    <t>docker container run -it alpine sh</t>
+  </si>
+  <si>
+    <t>shows host system events in a parallel window</t>
+  </si>
+  <si>
+    <t>interactive terminal (can work in the terminal prompt). sh=shell (or bash)</t>
+  </si>
+  <si>
+    <t>Interacting with Containers</t>
+  </si>
+  <si>
+    <t>cat /etc/issue</t>
+  </si>
+  <si>
+    <t>Welcome to Alpine Linux 3.8</t>
+  </si>
+  <si>
+    <t>ps aux</t>
+  </si>
+  <si>
+    <t>processes running inside container / host</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -454,6 +551,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -526,7 +638,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -566,6 +678,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,31 +928,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -906,11 +1022,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1516,6 +1632,20 @@
       </c>
       <c r="D42" s="10" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1554,9 +1684,10 @@
     <hyperlink ref="C34" r:id="rId31"/>
     <hyperlink ref="C40" r:id="rId32"/>
     <hyperlink ref="C42" r:id="rId33"/>
+    <hyperlink ref="C43" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId34"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -1668,4 +1799,147 @@
   <autoFilter ref="A1:B19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="89.140625" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -9,24 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="TrainingRequirements" sheetId="2" r:id="rId2"/>
     <sheet name="DevelopmentEnvironment" sheetId="3" r:id="rId3"/>
     <sheet name="DockerCheatSheet" sheetId="4" r:id="rId4"/>
+    <sheet name="Jenkins CI CD" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DevelopmentEnvironment!$A$1:$B$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$36</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="266">
   <si>
     <t>Anodiam</t>
   </si>
@@ -458,13 +459,510 @@
   </si>
   <si>
     <t>processes running inside container / host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps -ef --forest </t>
+  </si>
+  <si>
+    <t>docker stop containerId</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>ifconfig</t>
+  </si>
+  <si>
+    <t>Ctrl + P; Ctrl + Q: to detach, Ctrl + C: kills the container</t>
+  </si>
+  <si>
+    <t>docker rm -f containerId</t>
+  </si>
+  <si>
+    <t>docker rm containerId</t>
+  </si>
+  <si>
+    <r>
+      <t>docker container run -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>itd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> alpine sh</t>
+    </r>
+  </si>
+  <si>
+    <t>docker rename containerId new_name</t>
+  </si>
+  <si>
+    <t>docker logs containerId -f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -f : tail, optional</t>
+  </si>
+  <si>
+    <t>Docker exec</t>
+  </si>
+  <si>
+    <t>docker exec -it containerId sh</t>
+  </si>
+  <si>
+    <t>Run commands inside a container</t>
+  </si>
+  <si>
+    <t>docker exec containerId ps</t>
+  </si>
+  <si>
+    <t>docker exec containerId uptime</t>
+  </si>
+  <si>
+    <t>open shell interactively (similar to ssh into a container)</t>
+  </si>
+  <si>
+    <t>update apk</t>
+  </si>
+  <si>
+    <t>apk add vim</t>
+  </si>
+  <si>
+    <t>docker inspect containerId</t>
+  </si>
+  <si>
+    <t>docker cp</t>
+  </si>
+  <si>
+    <t>touch testfile</t>
+  </si>
+  <si>
+    <t>docker container cp testfile containerId:/opt</t>
+  </si>
+  <si>
+    <t>docker diff containerId</t>
+  </si>
+  <si>
+    <t>Nginx</t>
+  </si>
+  <si>
+    <t>docker container run -idt -P nginx:latest</t>
+  </si>
+  <si>
+    <t>docker container run -idt -p 8888:80 nginx:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -P: default port mapping (0.0.0.0:32768-&gt;80/tcp): 32769 of host -&gt; 80 of container
+IP.addr.of.host:32769 -&gt; website (localhost:32769)</t>
+  </si>
+  <si>
+    <t>docker run -idt --name ghost -p 3001:2368 ghost:alpine</t>
+  </si>
+  <si>
+    <t>localhost:8888 -&gt; port 80 of container (host-&gt;container)</t>
+  </si>
+  <si>
+    <t>docker images</t>
+  </si>
+  <si>
+    <t>docker image history ghost</t>
+  </si>
+  <si>
+    <t>portainer.io</t>
+  </si>
+  <si>
+    <t>docker volume create portainer_data</t>
+  </si>
+  <si>
+    <t>docker run -d -p 8000:8000 -p 9000:9000 --name=portainer --restart=always -v /var/run/docker.sock:/var/run/docker.sock -v portainer_data:/data portainer/portainer-ce</t>
+  </si>
+  <si>
+    <t>hostIp:9000 &gt; create userid / password &gt; connect Docker local</t>
+  </si>
+  <si>
+    <t>Docker Compose</t>
+  </si>
+  <si>
+    <t>git clone &lt;application stack with docker compose&gt;</t>
+  </si>
+  <si>
+    <t>docker-compose</t>
+  </si>
+  <si>
+    <t>runs docker compose utility</t>
+  </si>
+  <si>
+    <t>docker-compose up -d</t>
+  </si>
+  <si>
+    <t>Docker commit: Build an image</t>
+  </si>
+  <si>
+    <t>git clone &lt;application stack with docker compose&gt; (https://github.com/schoolofdevops/facebooc.git)</t>
+  </si>
+  <si>
+    <t>docker run -itd --name fb -p 16000:16000 ubuntu bash</t>
+  </si>
+  <si>
+    <t>docker exec -it fb bash</t>
+  </si>
+  <si>
+    <t>runs Ubuntu in container named fb, maps ubuntu container port 16000 to host port 16000</t>
+  </si>
+  <si>
+    <t>connects to fb, ubuntu container</t>
+  </si>
+  <si>
+    <t>apt-get update</t>
+  </si>
+  <si>
+    <t>whoami</t>
+  </si>
+  <si>
+    <t>apt-get install -yq build-essential make libsqlite3-dev sqlite3</t>
+  </si>
+  <si>
+    <t>which gcc</t>
+  </si>
+  <si>
+    <t>which make</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>cp facebook fb:/opt/</t>
+  </si>
+  <si>
+    <t>cd /opt/</t>
+  </si>
+  <si>
+    <t>cd /facebooc</t>
+  </si>
+  <si>
+    <t>make all</t>
+  </si>
+  <si>
+    <t>ls bin/</t>
+  </si>
+  <si>
+    <t>facebooc</t>
+  </si>
+  <si>
+    <t>bin/facebooc</t>
+  </si>
+  <si>
+    <t>Listening on port 16000.</t>
+  </si>
+  <si>
+    <t>docker login</t>
+  </si>
+  <si>
+    <t>docker image push repo/image:version</t>
+  </si>
+  <si>
+    <t>Dockerfile</t>
+  </si>
+  <si>
+    <t>docker image build -t anodiam/facebook:v2 .</t>
+  </si>
+  <si>
+    <t>docker image ls</t>
+  </si>
+  <si>
+    <t>docker image history anodiam/facebook:v2</t>
+  </si>
+  <si>
+    <t>docker container run -itd -P anodiam/facebook:v2</t>
+  </si>
+  <si>
+    <t>0.0.0.0:32769-&gt;16000/tcp</t>
+  </si>
+  <si>
+    <t>docker image push anodiam/facebook:v2</t>
+  </si>
+  <si>
+    <t>FROM  ubuntu
+WORKDIR /opt/facebooc
+RUN  apt-get update &amp;&amp;  \
+     apt-get install -yq build-essential make git libsqlite3-dev sqlite3 
+COPY . /opt/facebooc
+RUN  make all 
+EXPOSE 16000
+CMD "bin/facebooc"</t>
+  </si>
+  <si>
+    <t>shows layers created</t>
+  </si>
+  <si>
+    <t>Setup Jenkins with Docker</t>
+  </si>
+  <si>
+    <t>Create Jenkins and Docker containers (jenkins/blueocean &amp; docker:dind)</t>
+  </si>
+  <si>
+    <t>Jenkins setup</t>
+  </si>
+  <si>
+    <t>Install and Validate Docker and Docker-Compose installations</t>
+  </si>
+  <si>
+    <t>docker-compose version</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/udbc/bootcamp.git</t>
+  </si>
+  <si>
+    <t>cd bootcamp/setup</t>
+  </si>
+  <si>
+    <t>docker-compose -d jenkins</t>
+  </si>
+  <si>
+    <t>jenkins haas a dependency on docker: creates volumes, n/w and services</t>
+  </si>
+  <si>
+    <t>version: '3.0'
+networks:
+  custom:
+    driver: bridge
+    ipam:
+      driver: default
+      config:
+        - subnet: 192.168.61.0/24
+volumes:
+  cs-ansible:
+  jenkins-docker-certs:
+  jenkins-data:
+services:
+  control:
+    image: codespaces/ansible-control:3.0.0
+    ports:
+      - "8000:8000"
+    volumes:
+      - cs-ansible:/root/workspace
+    networks:
+      custom:
+        ipv4_address: 192.168.61.10
+    dns: 8.8.8.8
+    domainname: codespaces.io
+    hostname: control
+    restart: always
+  frontend:
+    image: codespaces/ansible-node-ubuntu:18.04
+    ports:
+       - "80:8079"
+    networks:
+      custom:
+        ipv4_address: 192.168.61.11
+    dns: 8.8.8.8
+    domainname: codespaces.io
+    hostname: frontend
+    restart: always
+  catalogue:
+    image: codespaces/ansible-node-ubuntu:18.04
+    ports:
+       - "7081:80"
+    networks:
+      custom:
+        ipv4_address: 192.168.61.12
+    dns: 8.8.8.8
+    domainname: codespaces.io
+    hostname: catalogue
+    restart: always
+  carts:
+    image: codespaces/ansible-node-ubuntu:18.04
+    ports:
+      - "8081:80"
+    networks:
+      custom:
+        ipv4_address: 192.168.61.13
+    dns: 8.8.8.8
+    domainname: codespaces.io
+    hostname: carts
+    restart: always
+  carts-db:
+    image: mongo
+    restart: always
+    environment:
+      MONGO_INITDB_ROOT_USERNAME: root
+      MONGO_INITDB_ROOT_PASSWORD: admin123
+  jenkins:
+    image: jenkinsci/blueocean
+    ports:
+      - 8080:8080
+      - 50000:50000
+    environment:
+      - DOCKER_HOST=tcp://docker:2376
+      - DOCKER_CERT_PATH=/certs/client
+      - DOCKER_TLS_VERIFY=1
+    networks:
+      custom:
+        ipv4_address: 192.168.61.15
+    dns: 8.8.8.8
+    domainname: codespaces.io
+    hostname: jenkins
+    restart: always
+    volumes:
+      - jenkins-data:/var/jenkins_home
+      - jenkins-docker-certs:/certs/client:ro
+    depends_on: 
+      - docker
+  docker:
+    image: docker:dind
+    ports:
+      - 2376:2376
+    environment:
+      - DOCKER_TLS_CERTDIR=/certs
+    networks:
+      custom:
+        ipv4_address: 192.168.61.16
+        aliases:
+          - docker
+    privileged: true
+    domainname: codespaces.io
+    hostname: docker
+    restart: always
+    volumes:
+      - jenkins-docker-certs:/certs/client
+      - jenkins-data:/var/jenkins_home</t>
+  </si>
+  <si>
+    <t>docker-compose ps</t>
+  </si>
+  <si>
+    <t>docker and jenkins containers are created</t>
+  </si>
+  <si>
+    <t>docker-compose logs jenkins</t>
+  </si>
+  <si>
+    <t>get jenkins password</t>
+  </si>
+  <si>
+    <t>install suggested plugins, add admin user and pswd (admin/admin)</t>
+  </si>
+  <si>
+    <t>Configure Jenkins</t>
+  </si>
+  <si>
+    <t>Create Free Style Job</t>
+  </si>
+  <si>
+    <t>Create Build Job for Maven Project</t>
+  </si>
+  <si>
+    <t>Create Test and Package Jobs</t>
+  </si>
+  <si>
+    <t>Connect Jobs with Upstream and Downstream Configs</t>
+  </si>
+  <si>
+    <t>Set up Build Triggers</t>
+  </si>
+  <si>
+    <t>Set up Rudimentary Pipeline</t>
+  </si>
+  <si>
+    <t>Two ways of Writing Pipeline as a Code</t>
+  </si>
+  <si>
+    <t>Easy way to create a Pipeline</t>
+  </si>
+  <si>
+    <t>Systems Configs</t>
+  </si>
+  <si>
+    <t>Security Configs</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>Global Tools</t>
+  </si>
+  <si>
+    <t>Maven, Node JS, JDK, Git, Docker</t>
+  </si>
+  <si>
+    <t>Plugins</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Installed</t>
+  </si>
+  <si>
+    <t>Updates</t>
+  </si>
+  <si>
+    <t>Manage Jenkins &gt; Config System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of executors = CPU Cores = # of || jenkins jobs; jenkins url; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Security &gt; Jenkins own user DB &gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Tools Config &gt; </t>
+  </si>
+  <si>
+    <t>Manage Plugins &gt; Available tab &gt; Filter &gt; Maven &gt; Select Maven Integration &gt; Install without restart</t>
+  </si>
+  <si>
+    <t>Create New Job &gt; Free Style</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Scource Code Management</t>
+  </si>
+  <si>
+    <t>Build Triggers</t>
+  </si>
+  <si>
+    <t>Build Env</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Post Build</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lxer8uycBQk</t>
+  </si>
+  <si>
+    <t>Jenkins on GKE</t>
+  </si>
+  <si>
+    <t>Types of jobs &gt; Free Style, Maven, Pipeline, Multibranch Pipeline, Folder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -566,6 +1064,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -638,7 +1143,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -682,6 +1187,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,6 +1199,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -928,31 +1440,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1022,11 +1534,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1646,6 +2158,14 @@
       </c>
       <c r="D43" s="26" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -1803,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1910,33 +2430,636 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>136</v>
       </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B86" s="34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="27" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
       <c r="B18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" t="s">
-        <v>143</v>
+        <v>256</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="267">
   <si>
     <t>Anodiam</t>
   </si>
@@ -956,6 +956,9 @@
   </si>
   <si>
     <t>Types of jobs &gt; Free Style, Maven, Pipeline, Multibranch Pipeline, Folder</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fvEWoy1xOvo&amp;t=468s</t>
   </si>
 </sst>
 </file>
@@ -1188,6 +1191,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,12 +1208,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1440,31 +1443,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1536,14 +1539,14 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" style="10" customWidth="1"/>
@@ -2158,6 +2161,11 @@
       </c>
       <c r="D43" s="26" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="15" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2205,9 +2213,10 @@
     <hyperlink ref="C40" r:id="rId32"/>
     <hyperlink ref="C42" r:id="rId33"/>
     <hyperlink ref="C43" r:id="rId34"/>
+    <hyperlink ref="C44" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId35"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -2582,7 +2591,7 @@
       <c r="B41" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="28" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2832,7 +2841,7 @@
       </c>
     </row>
     <row r="86" spans="2:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="29" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2846,7 +2855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2885,7 +2894,7 @@
       <c r="C5" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="29" t="s">
         <v>226</v>
       </c>
     </row>

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="269">
   <si>
     <t>Anodiam</t>
   </si>
@@ -959,6 +959,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fvEWoy1xOvo&amp;t=468s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zPVS7wCevPM</t>
+  </si>
+  <si>
+    <t>War file creation</t>
   </si>
 </sst>
 </file>
@@ -1540,8 +1546,8 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2164,8 +2170,19 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="24" t="s">
+        <v>113</v>
+      </c>
       <c r="C44" s="15" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2214,9 +2231,10 @@
     <hyperlink ref="C42" r:id="rId33"/>
     <hyperlink ref="C43" r:id="rId34"/>
     <hyperlink ref="C44" r:id="rId35"/>
+    <hyperlink ref="C45" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId36"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -2334,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -23,11 +23,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="272">
   <si>
     <t>Anodiam</t>
   </si>
@@ -965,6 +966,15 @@
   </si>
   <si>
     <t>War file creation</t>
+  </si>
+  <si>
+    <t>Hello World in Spring Boot</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HTuE0GZtnM4&amp;t=584s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=05EKZ9Xmfws</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1162,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1203,6 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1449,31 +1460,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1543,11 +1554,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2185,11 +2196,28 @@
         <v>267</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+    <row r="46" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="24"/>
+      <c r="B46" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2232,9 +2260,11 @@
     <hyperlink ref="C43" r:id="rId34"/>
     <hyperlink ref="C44" r:id="rId35"/>
     <hyperlink ref="C45" r:id="rId36"/>
+    <hyperlink ref="C47" r:id="rId37"/>
+    <hyperlink ref="C46" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId37"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId39"/>
 </worksheet>
 </file>
 
@@ -2352,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2382,7 +2412,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="26" t="s">
         <v>119</v>
       </c>
       <c r="C4" t="s">
@@ -2411,7 +2441,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="B8" s="26" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2478,7 +2508,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="B19" s="26" t="s">
         <v>136</v>
       </c>
       <c r="C19" t="s">

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -23,12 +23,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="274">
   <si>
     <t>Anodiam</t>
   </si>
@@ -975,6 +974,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=05EKZ9Xmfws</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6rGMvws--kk</t>
+  </si>
+  <si>
+    <t>Packaging War file into Docker</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1096,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,6 +1106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,7 +1173,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1225,6 +1236,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1554,11 +1567,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2201,7 +2214,7 @@
       <c r="B46" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="36" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2209,7 +2222,7 @@
       <c r="A47" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="36" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2217,8 +2230,16 @@
       <c r="A50" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="37" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="276">
   <si>
     <t>Anodiam</t>
   </si>
@@ -980,6 +980,12 @@
   </si>
   <si>
     <t>Packaging War file into Docker</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=20om-9Gwuc0&amp;t=311s</t>
+  </si>
+  <si>
+    <t>Mysql docker insatnce</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1179,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1225,6 +1231,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,8 +1243,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1473,31 +1478,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1567,11 +1572,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2205,7 +2210,7 @@
       <c r="A45" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="31" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2214,7 +2219,7 @@
       <c r="B46" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="31" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2222,7 +2227,7 @@
       <c r="A47" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="31" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2230,7 +2235,7 @@
       <c r="A50" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="31" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2238,8 +2243,16 @@
       <c r="A51" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="31" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2283,9 +2296,11 @@
     <hyperlink ref="C45" r:id="rId36"/>
     <hyperlink ref="C47" r:id="rId37"/>
     <hyperlink ref="C46" r:id="rId38"/>
+    <hyperlink ref="C51" r:id="rId39"/>
+    <hyperlink ref="C52" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId39"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId41"/>
 </worksheet>
 </file>
 

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="278">
   <si>
     <t>Anodiam</t>
   </si>
@@ -986,6 +986,12 @@
   </si>
   <si>
     <t>Mysql docker insatnce</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZZ2Llh4NhaY</t>
+  </si>
+  <si>
+    <t>Docker-Compose</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1108,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1118,6 +1124,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,7 +1191,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1243,6 +1255,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1572,11 +1585,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2253,6 +2266,14 @@
       </c>
       <c r="C52" s="31" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2298,9 +2319,10 @@
     <hyperlink ref="C46" r:id="rId38"/>
     <hyperlink ref="C51" r:id="rId39"/>
     <hyperlink ref="C52" r:id="rId40"/>
+    <hyperlink ref="C53" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId41"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId42"/>
 </worksheet>
 </file>
 

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="TrainingRequirements" sheetId="2" r:id="rId2"/>
-    <sheet name="DevelopmentEnvironment" sheetId="3" r:id="rId3"/>
+    <sheet name="CI Setup" sheetId="3" r:id="rId3"/>
     <sheet name="DockerCheatSheet" sheetId="4" r:id="rId4"/>
-    <sheet name="Jenkins CI CD" sheetId="5" r:id="rId5"/>
+    <sheet name="Jenkins CI" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DevelopmentEnvironment!$A$1:$B$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="346">
   <si>
     <t>Anodiam</t>
   </si>
@@ -71,9 +70,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Software / Hardware Requirement</t>
-  </si>
-  <si>
     <t>Agile</t>
   </si>
   <si>
@@ -110,9 +106,6 @@
     <t>DevOps</t>
   </si>
   <si>
-    <t>Gcloud</t>
-  </si>
-  <si>
     <t>Kubernetes</t>
   </si>
   <si>
@@ -126,18 +119,6 @@
   </si>
   <si>
     <t>AI/ML</t>
-  </si>
-  <si>
-    <t>Windows 10</t>
-  </si>
-  <si>
-    <t>Mac OS</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>IntelliJ Idea</t>
   </si>
   <si>
     <t>User Id</t>
@@ -714,142 +695,9 @@
     <t>Create Jenkins and Docker containers (jenkins/blueocean &amp; docker:dind)</t>
   </si>
   <si>
-    <t>Jenkins setup</t>
-  </si>
-  <si>
-    <t>Install and Validate Docker and Docker-Compose installations</t>
-  </si>
-  <si>
-    <t>docker-compose version</t>
-  </si>
-  <si>
-    <t>git clone https://github.com/udbc/bootcamp.git</t>
-  </si>
-  <si>
-    <t>cd bootcamp/setup</t>
-  </si>
-  <si>
-    <t>docker-compose -d jenkins</t>
-  </si>
-  <si>
-    <t>jenkins haas a dependency on docker: creates volumes, n/w and services</t>
-  </si>
-  <si>
-    <t>version: '3.0'
-networks:
-  custom:
-    driver: bridge
-    ipam:
-      driver: default
-      config:
-        - subnet: 192.168.61.0/24
-volumes:
-  cs-ansible:
-  jenkins-docker-certs:
-  jenkins-data:
-services:
-  control:
-    image: codespaces/ansible-control:3.0.0
-    ports:
-      - "8000:8000"
-    volumes:
-      - cs-ansible:/root/workspace
-    networks:
-      custom:
-        ipv4_address: 192.168.61.10
-    dns: 8.8.8.8
-    domainname: codespaces.io
-    hostname: control
-    restart: always
-  frontend:
-    image: codespaces/ansible-node-ubuntu:18.04
-    ports:
-       - "80:8079"
-    networks:
-      custom:
-        ipv4_address: 192.168.61.11
-    dns: 8.8.8.8
-    domainname: codespaces.io
-    hostname: frontend
-    restart: always
-  catalogue:
-    image: codespaces/ansible-node-ubuntu:18.04
-    ports:
-       - "7081:80"
-    networks:
-      custom:
-        ipv4_address: 192.168.61.12
-    dns: 8.8.8.8
-    domainname: codespaces.io
-    hostname: catalogue
-    restart: always
-  carts:
-    image: codespaces/ansible-node-ubuntu:18.04
-    ports:
-      - "8081:80"
-    networks:
-      custom:
-        ipv4_address: 192.168.61.13
-    dns: 8.8.8.8
-    domainname: codespaces.io
-    hostname: carts
-    restart: always
-  carts-db:
-    image: mongo
-    restart: always
-    environment:
-      MONGO_INITDB_ROOT_USERNAME: root
-      MONGO_INITDB_ROOT_PASSWORD: admin123
-  jenkins:
-    image: jenkinsci/blueocean
-    ports:
-      - 8080:8080
-      - 50000:50000
-    environment:
-      - DOCKER_HOST=tcp://docker:2376
-      - DOCKER_CERT_PATH=/certs/client
-      - DOCKER_TLS_VERIFY=1
-    networks:
-      custom:
-        ipv4_address: 192.168.61.15
-    dns: 8.8.8.8
-    domainname: codespaces.io
-    hostname: jenkins
-    restart: always
-    volumes:
-      - jenkins-data:/var/jenkins_home
-      - jenkins-docker-certs:/certs/client:ro
-    depends_on: 
-      - docker
-  docker:
-    image: docker:dind
-    ports:
-      - 2376:2376
-    environment:
-      - DOCKER_TLS_CERTDIR=/certs
-    networks:
-      custom:
-        ipv4_address: 192.168.61.16
-        aliases:
-          - docker
-    privileged: true
-    domainname: codespaces.io
-    hostname: docker
-    restart: always
-    volumes:
-      - jenkins-docker-certs:/certs/client
-      - jenkins-data:/var/jenkins_home</t>
-  </si>
-  <si>
-    <t>docker-compose ps</t>
-  </si>
-  <si>
     <t>docker and jenkins containers are created</t>
   </si>
   <si>
-    <t>docker-compose logs jenkins</t>
-  </si>
-  <si>
     <t>get jenkins password</t>
   </si>
   <si>
@@ -992,13 +840,346 @@
   </si>
   <si>
     <t>Docker-Compose</t>
+  </si>
+  <si>
+    <t>Set up Jenkins on Standalone GCP Insatnce</t>
+  </si>
+  <si>
+    <t>Setup Standalone GCP Instance for Jenkins</t>
+  </si>
+  <si>
+    <t>Create Firewall and attach to above instance</t>
+  </si>
+  <si>
+    <t>GCP Console &gt; VPC Network &gt; Firewall &gt; Create firewall rule</t>
+  </si>
+  <si>
+    <t>Open port tcp:8080</t>
+  </si>
+  <si>
+    <t>GCP Console &gt; Compute Engine &gt; VM Instances &gt; Create new</t>
+  </si>
+  <si>
+    <t>GCP Console &gt; Compute Engine &gt; Above Instance &gt; Network interfaces &gt; View Details</t>
+  </si>
+  <si>
+    <t>Attache above firewall rule to default VPC</t>
+  </si>
+  <si>
+    <t>Setup Jenkins using Docker</t>
+  </si>
+  <si>
+    <t>Setup Jenkins</t>
+  </si>
+  <si>
+    <t>Install Docker and Docker-compose</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: anodiam-ubuntu16-instance-01
+Region, Machine Type, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ubuntu 16.04LTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>,
+Allow HTTP(S) &gt; Create</t>
+    </r>
+  </si>
+  <si>
+    <t>SSH into anodiam-ubuntu16-instance-01</t>
+  </si>
+  <si>
+    <t>Install Docker on Ubuntu</t>
+  </si>
+  <si>
+    <t>https://docs.docker.com/engine/install/ubuntu/</t>
+  </si>
+  <si>
+    <t>$ sudo apt-get remove docker docker-engine docker.io containerd runc</t>
+  </si>
+  <si>
+    <t>jenkins has a dependency on docker: creates volumes, n/w and services</t>
+  </si>
+  <si>
+    <t>$ sudo apt-get update</t>
+  </si>
+  <si>
+    <t>$ sudo apt-get install apt-transport-https ca-certificates curl gnupg-agent \
+    software-properties-common</t>
+  </si>
+  <si>
+    <t>$ curl -fsSL https://download.docker.com/linux/ubuntu/gpg | sudo apt-key add -</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sudo apt-key fingerprint 0EBFCD88</t>
+    </r>
+  </si>
+  <si>
+    <t>$ sudo add-apt-repository \
+   "deb [arch=amd64] https://download.docker.com/linux/ubuntu $(lsb_release -cs) stable"</t>
+  </si>
+  <si>
+    <t>$ sudo apt-get install docker-ce docker-ce-cli containerd.io</t>
+  </si>
+  <si>
+    <t>$ sudo docker run hello-world</t>
+  </si>
+  <si>
+    <t>$ sudo docker version</t>
+  </si>
+  <si>
+    <t>https://docs.docker.com/compose/install/</t>
+  </si>
+  <si>
+    <t>Install Docker Compose</t>
+  </si>
+  <si>
+    <t>$ sudo curl -L "https://github.com/docker/compose/releases/download/1.27.4/docker-compose-$(uname -s)-$(uname -m)" -o /usr/local/bin/docker-compose</t>
+  </si>
+  <si>
+    <t>$ sudo chmod +x /usr/local/bin/docker-compose</t>
+  </si>
+  <si>
+    <t>$ docker-compose --version</t>
+  </si>
+  <si>
+    <t>$ sudo su</t>
+  </si>
+  <si>
+    <t>$ git clone https://github.com/anodiamadm/infra-code.git</t>
+  </si>
+  <si>
+    <t>$ cd infra-code/docker-compose/</t>
+  </si>
+  <si>
+    <t>$ docker-compose up -d jenkins</t>
+  </si>
+  <si>
+    <t>$ docker-compose ps</t>
+  </si>
+  <si>
+    <t>$ docker-compose logs jenkins</t>
+  </si>
+  <si>
+    <t>http://IP.address.of.anodiam-ubuntu16-instance-01:8080</t>
+  </si>
+  <si>
+    <t>Install plugins, Create admin user, Instance IP / DNS Configuration</t>
+  </si>
+  <si>
+    <t>Start Using Jenkins</t>
+  </si>
+  <si>
+    <t>Configure Jenkins &gt; Manage Jenkins</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Systems, Security, Tools, Plugins:
+Systems: # of executors = # of CPU cores
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Plugins: Install Maven Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; New Item shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Maven Project</t>
+    </r>
+  </si>
+  <si>
+    <t>Build-Test-Package pipeline for NodeJS &amp; Maven apps
+Create and Arcive Atrifacts. Jenkinsfile: Pipeline as code.</t>
+  </si>
+  <si>
+    <t>https://github.com/anodiamadm/front-end</t>
+  </si>
+  <si>
+    <t>Fork front-end app from https://github.com/udbc/front-end</t>
+  </si>
+  <si>
+    <t>Install NodeJS plugin in Jenkins, Add NodeJS 4.8.6 to Global Tools Config</t>
+  </si>
+  <si>
+    <t>Create folder in jenkins named Front-end-app</t>
+  </si>
+  <si>
+    <t>Create job named build (free style project) inside above folder
+Description: ….</t>
+  </si>
+  <si>
+    <t>SCM: Git &gt; https://github.com/anodiamadm/front-end; add credentials
+Build Env &gt; Provide Node &amp; npm bin/ folder to PATH
+Build: Exec Shell &gt; npm install</t>
+  </si>
+  <si>
+    <t>Build Now</t>
+  </si>
+  <si>
+    <t>Test and Package Job</t>
+  </si>
+  <si>
+    <t>Build: Exec Shell &gt; npm install
+npm test</t>
+  </si>
+  <si>
+    <t>Build now</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Clone build job to make test job. Tests (automation scripts) are added in the git hub 'tests' directory.</t>
+  </si>
+  <si>
+    <t>Build: Exec Shell &gt; npm install
+npm run package</t>
+  </si>
+  <si>
+    <t>Clone build job to make package job.
+Runs the scripts section of package.json</t>
+  </si>
+  <si>
+    <t>Install zip package inside jenkins container</t>
+  </si>
+  <si>
+    <t>SSH into anodiam-ubuntu16-instance-01
+$ cd /home/anodiam_adm/infra-code/docker-compose
+$ sudo su
+$ docker-compose exec -u root jenkins bash
+bash-5.0# cat /etc/issue
+bash-5.0# apk update
+bash-5.0# apk add zip</t>
+  </si>
+  <si>
+    <t>Post-build Actions &gt; Archive the Artifacts &gt; **/distribution/*.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success &gt; package job &gt; Last Successful Artifacts &gt;  frontend-0.0.2.zip </t>
+  </si>
+  <si>
+    <t>Build Pipeline</t>
+  </si>
+  <si>
+    <t>Install "Build Pipeline" plugin in jenkins</t>
+  </si>
+  <si>
+    <t>inside frontend folder in jenkins &gt; + &gt; View Name = pipeline-view &gt; build-pipeline view</t>
+  </si>
+  <si>
+    <t>Initial job = build, # of builds displayed = 5</t>
+  </si>
+  <si>
+    <t>For test job add build trigger = build and post-build action = package</t>
+  </si>
+  <si>
+    <t>Build Job &gt; Build Trigger &gt; Poll SCM (H/2 * * * *)</t>
+  </si>
+  <si>
+    <t>Build End-to-end Pipeline for Maven (carts) App</t>
+  </si>
+  <si>
+    <t>Create carts folder</t>
+  </si>
+  <si>
+    <t>SCM &gt; Git &gt; https://github.com/anodiamadm/carts.git</t>
+  </si>
+  <si>
+    <t>add credentials if reqd</t>
+  </si>
+  <si>
+    <t>Build Trigg &gt; Poll SCM (H/2 * * * *)</t>
+  </si>
+  <si>
+    <t>Global Tools Config &gt; Maven &gt; Add Maven &gt; Maven 3.6.3</t>
+  </si>
+  <si>
+    <t>Build &gt; Goals and Options &gt; compile</t>
+  </si>
+  <si>
+    <t>Copy build job to test and package jobs</t>
+  </si>
+  <si>
+    <t>For test job add build trigger = Build after other projects are built = build</t>
+  </si>
+  <si>
+    <t>Build &gt; Goals and Options &gt; clean test</t>
+  </si>
+  <si>
+    <t>For package job add build trigger = Build after other projects are built = test</t>
+  </si>
+  <si>
+    <t>Build &gt; Goals and Options &gt; package -DskipTests</t>
+  </si>
+  <si>
+    <t>Post-build Actions &gt; Archive the Artifacts &gt; **/target/*.jar</t>
+  </si>
+  <si>
+    <t>Build CI Jenkins Pipeline for NodeJS and Maven Apps</t>
+  </si>
+  <si>
+    <t>Build CI Pipeline for front-end NodeJS app</t>
+  </si>
+  <si>
+    <t>Build Job</t>
+  </si>
+  <si>
+    <t>Jenkinsfile for Maven App</t>
+  </si>
+  <si>
+    <t>PATSSSP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1107,6 +1288,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1191,7 +1386,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1244,6 +1439,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,7 +1452,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1491,31 +1714,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1587,9 +1810,9 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1611,40 +1834,40 @@
         <v>13</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1652,26 +1875,26 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
@@ -1680,119 +1903,119 @@
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="F7" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1800,32 +2023,32 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1834,33 +2057,33 @@
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1870,99 +2093,99 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1970,145 +2193,145 @@
     </row>
     <row r="24" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="F26" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="17" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="17"/>
@@ -2118,7 +2341,7 @@
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="17"/>
@@ -2126,11 +2349,11 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="17"/>
@@ -2140,7 +2363,7 @@
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="17"/>
@@ -2148,132 +2371,132 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24"/>
       <c r="B46" s="26" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>276</v>
+        <v>261</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2328,111 +2551,624 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+    <col min="4" max="4" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="42"/>
+    </row>
+    <row r="8" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="42"/>
+    </row>
+    <row r="9" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
+      <c r="C31" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="40"/>
+      <c r="C34" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="1:5" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="40"/>
+    </row>
+    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="D39" s="42"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="42"/>
+    </row>
+    <row r="41" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" s="42"/>
+    </row>
+    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="32" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="43"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="D52" s="42"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="D53" s="42"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="40"/>
+      <c r="B54" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" s="42"/>
+    </row>
+    <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="D56" s="42"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="D58" s="42"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="D59" s="42"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="D60" s="42"/>
+    </row>
+    <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="D61" s="42"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="D62" s="42"/>
+    </row>
+    <row r="63" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="D63" s="42"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D64" s="42"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="D65" s="42"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="40"/>
+      <c r="B66" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="C66" s="42"/>
+      <c r="D66" s="43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B19"/>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D20" r:id="rId2"/>
+    <hyperlink ref="D31" r:id="rId3"/>
+    <hyperlink ref="D38" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2453,502 +3189,502 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="26" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" s="26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="26" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="26" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="26" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="26" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="26" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="26" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="26" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" s="26" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="26" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" s="26" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" s="26" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" s="26" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="26" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="26" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" s="26" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" s="26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" s="26" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B59" s="26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61" s="26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B62" s="26" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B63" s="26" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" s="26" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B65" s="26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" s="26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B67" s="26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="102" x14ac:dyDescent="0.2">
       <c r="B86" s="29" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2961,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2975,206 +3711,151 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="27" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" s="27" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D15" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="27" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C19" s="27" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C20" s="27" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C21" s="27" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C22" s="27" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C23" s="27" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="359">
   <si>
     <t>Anodiam</t>
   </si>
@@ -873,31 +873,6 @@
   </si>
   <si>
     <t>Install Docker and Docker-compose</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Name: anodiam-ubuntu16-instance-01
-Region, Machine Type, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ubuntu 16.04LTS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>,
-Allow HTTP(S) &gt; Create</t>
-    </r>
   </si>
   <si>
     <t>SSH into anodiam-ubuntu16-instance-01</t>
@@ -1173,6 +1148,70 @@
   </si>
   <si>
     <t>PATSSSP</t>
+  </si>
+  <si>
+    <t>Create Admin User to the Instance / OS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: anodiam-ubuntu16-instance-01
+Region, Machine Type, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CentOS 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>,
+Allow HTTP(S) &gt; Create</t>
+    </r>
+  </si>
+  <si>
+    <t># adduser anodiamadmin</t>
+  </si>
+  <si>
+    <t># passwd anodiamadmin</t>
+  </si>
+  <si>
+    <t># usermod -aG wheel anodiamadmin</t>
+  </si>
+  <si>
+    <t># su - anodiamadmin</t>
+  </si>
+  <si>
+    <t>Become SU</t>
+  </si>
+  <si>
+    <t>Add User</t>
+  </si>
+  <si>
+    <t>Set Password and Confirm</t>
+  </si>
+  <si>
+    <t>Give Admin access by adding to wheel group</t>
+  </si>
+  <si>
+    <t>Become new user</t>
+  </si>
+  <si>
+    <t>$ sudo ls -la /root</t>
+  </si>
+  <si>
+    <t>Run root commands as new user, put in password and confirm that new user  has root access</t>
+  </si>
+  <si>
+    <t>$ whoami</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1425,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1441,17 +1480,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1479,6 +1508,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1714,31 +1754,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2551,10 +2591,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2566,606 +2606,682 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="34" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="38"/>
+    </row>
+    <row r="15" spans="1:4" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="39" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42"/>
-    </row>
-    <row r="8" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="43" t="s">
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="42"/>
-    </row>
-    <row r="9" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="43" t="s">
+      <c r="D17" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="D9" s="45" t="s">
+    </row>
+    <row r="18" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43" t="s">
+    <row r="19" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="E33" s="39"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" s="36"/>
+    </row>
+    <row r="35" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="E35" s="36"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="E36" s="40" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="E26" s="40"/>
-    </row>
-    <row r="27" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="E27" s="40"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="44" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="E28" s="44" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="44" t="s">
+      <c r="E37" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="E29" s="40" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="44" t="s">
+      <c r="E38" s="36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="36"/>
+      <c r="C39" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="E30" s="40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="C31" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="D31" s="46" t="s">
+      <c r="E39" s="36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="E31" s="40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="43" t="s">
+      <c r="E40" s="36"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="E32" s="40"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="43" t="s">
+      <c r="E41" s="36"/>
+    </row>
+    <row r="42" spans="1:5" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="36"/>
+      <c r="C42" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="E33" s="40"/>
-    </row>
-    <row r="34" spans="1:5" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="C34" s="44" t="s">
+      <c r="D42" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="E42" s="36"/>
+    </row>
+    <row r="43" spans="1:5" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="36"/>
+    </row>
+    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="C44" s="36"/>
+      <c r="D44" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="E34" s="40"/>
-    </row>
-    <row r="35" spans="1:5" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="40"/>
-    </row>
-    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41" t="s">
+      <c r="E44" s="36"/>
+    </row>
+    <row r="45" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="43" t="s">
+      <c r="D45" s="39"/>
+      <c r="E45" s="36"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="D46" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="E36" s="40"/>
-    </row>
-    <row r="37" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="47" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="D47" s="38"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="D48" s="38"/>
+    </row>
+    <row r="49" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="D51" s="38"/>
+    </row>
+    <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="32" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="D56" s="39"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" s="38"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="D61" s="38"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="36"/>
+      <c r="B62" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="D63" s="38"/>
+    </row>
+    <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="D64" s="38"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="D66" s="38"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="D67" s="38"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="D68" s="38"/>
+    </row>
+    <row r="69" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="D69" s="38"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="D70" s="38"/>
+    </row>
+    <row r="71" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="D71" s="38"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="D72" s="38"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="D73" s="38"/>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="36"/>
+      <c r="B74" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="40"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="D39" s="42"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="D40" s="42"/>
-    </row>
-    <row r="41" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="D43" s="42"/>
-    </row>
-    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="32" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="D48" s="43"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="D52" s="42"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="D53" s="42"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="40"/>
-      <c r="B54" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="D55" s="42"/>
-    </row>
-    <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="D56" s="42"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="D57" s="43" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="D58" s="42"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="D59" s="42"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="D60" s="42"/>
-    </row>
-    <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="43" t="s">
-        <v>336</v>
-      </c>
-      <c r="D61" s="42"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="D62" s="42"/>
-    </row>
-    <row r="63" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="D63" s="42"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="D64" s="42"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="D65" s="42"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="40"/>
-      <c r="B66" s="41" t="s">
+      <c r="C74" s="38"/>
+      <c r="D74" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="C66" s="42"/>
-      <c r="D66" s="43" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="D20" r:id="rId2"/>
-    <hyperlink ref="D31" r:id="rId3"/>
-    <hyperlink ref="D38" r:id="rId4"/>
+    <hyperlink ref="D17" r:id="rId1"/>
+    <hyperlink ref="D28" r:id="rId2"/>
+    <hyperlink ref="D39" r:id="rId3"/>
+    <hyperlink ref="D46" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId5"/>

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="374">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1153,6 +1153,70 @@
     <t>Create Admin User to the Instance / OS</t>
   </si>
   <si>
+    <t># adduser anodiamadmin</t>
+  </si>
+  <si>
+    <t># passwd anodiamadmin</t>
+  </si>
+  <si>
+    <t># usermod -aG wheel anodiamadmin</t>
+  </si>
+  <si>
+    <t># su - anodiamadmin</t>
+  </si>
+  <si>
+    <t>Become SU</t>
+  </si>
+  <si>
+    <t>Add User</t>
+  </si>
+  <si>
+    <t>Set Password and Confirm</t>
+  </si>
+  <si>
+    <t>Give Admin access by adding to wheel group</t>
+  </si>
+  <si>
+    <t>Become new user</t>
+  </si>
+  <si>
+    <t>$ sudo ls -la /root</t>
+  </si>
+  <si>
+    <t>Run root commands as new user, put in password and confirm that new user  has root access</t>
+  </si>
+  <si>
+    <t>$ whoami</t>
+  </si>
+  <si>
+    <t>$ ping google.com</t>
+  </si>
+  <si>
+    <t>New User</t>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+  </si>
+  <si>
+    <t>CentOS 7</t>
+  </si>
+  <si>
+    <t>$ sudo yum remove docker docker-client docker-client-latest docker-common docker-latest docker-latest-logrotate docker-logrotate docker-engine</t>
+  </si>
+  <si>
+    <t>$ sudo yum install -y yum-utils</t>
+  </si>
+  <si>
+    <t>$ sudo yum-config-manager --add-repo \
+    https://download.docker.com/linux/centos/docker-ce.repo</t>
+  </si>
+  <si>
+    <t>$ sudo yum install docker-ce docker-ce-cli containerd.io</t>
+  </si>
+  <si>
+    <t>$ sudo systemctl start docker</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Name: anodiam-ubuntu16-instance-01
 Region, Machine Type, </t>
@@ -1165,7 +1229,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>CentOS 7</t>
+      <t>Ubunt 16.04 / CentOS 7</t>
     </r>
     <r>
       <rPr>
@@ -1178,40 +1242,22 @@
     </r>
   </si>
   <si>
-    <t># adduser anodiamadmin</t>
-  </si>
-  <si>
-    <t># passwd anodiamadmin</t>
-  </si>
-  <si>
-    <t># usermod -aG wheel anodiamadmin</t>
-  </si>
-  <si>
-    <t># su - anodiamadmin</t>
-  </si>
-  <si>
-    <t>Become SU</t>
-  </si>
-  <si>
-    <t>Add User</t>
-  </si>
-  <si>
-    <t>Set Password and Confirm</t>
-  </si>
-  <si>
-    <t>Give Admin access by adding to wheel group</t>
-  </si>
-  <si>
-    <t>Become new user</t>
-  </si>
-  <si>
-    <t>$ sudo ls -la /root</t>
-  </si>
-  <si>
-    <t>Run root commands as new user, put in password and confirm that new user  has root access</t>
-  </si>
-  <si>
-    <t>$ whoami</t>
+    <t>anodiam-standalone-instance-centos7-01</t>
+  </si>
+  <si>
+    <t>$ docker pull jenkins/jenkins</t>
+  </si>
+  <si>
+    <t>$ docker images</t>
+  </si>
+  <si>
+    <t>$ docker info | grep -i root</t>
+  </si>
+  <si>
+    <t>Docker stores files in Root Dir: /var/lib/docker</t>
+  </si>
+  <si>
+    <t>$ yum install git</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1388,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1367,8 +1413,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1417,6 +1469,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1425,7 +1492,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1478,36 +1545,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1519,6 +1557,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1754,31 +1822,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2535,7 +2603,7 @@
       <c r="A53" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="32" t="s">
         <v>260</v>
       </c>
     </row>
@@ -2591,697 +2659,745 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
-    <col min="4" max="4" width="77.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" style="39" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="42" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="42"/>
+    <col min="9" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-    </row>
-    <row r="3" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+    </row>
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C3" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C5" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C6" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="42" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="38"/>
-    </row>
-    <row r="8" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="39" t="s">
+      <c r="D9" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C11" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C13" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="F16" s="40"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="F17" s="40"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="40"/>
+    </row>
+    <row r="19" spans="3:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="F19" s="40"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="42"/>
+      <c r="D20" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" s="40"/>
+    </row>
+    <row r="21" spans="3:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C21" s="42"/>
+      <c r="D21" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="F21" s="40"/>
+    </row>
+    <row r="22" spans="3:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C22" s="42"/>
+      <c r="D22" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="F22" s="40"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="F23" s="40"/>
+    </row>
+    <row r="24" spans="3:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C24" s="42"/>
+      <c r="D24" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24" s="40"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="42"/>
+      <c r="D25" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="42"/>
+      <c r="D27" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="3:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="C30" s="42"/>
+      <c r="D30" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="42"/>
+      <c r="D31" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="42"/>
+      <c r="D32" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+    </row>
+    <row r="34" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C34" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="34" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14" s="38"/>
-    </row>
-    <row r="15" spans="1:4" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
-    </row>
-    <row r="16" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="38"/>
-    </row>
-    <row r="17" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="40" t="s">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="40"/>
+      <c r="D35" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="40"/>
+      <c r="D36" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C37" s="40"/>
+      <c r="D37" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="40"/>
+      <c r="D38" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C39" s="40"/>
+      <c r="D39" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="E33" s="39"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="40" t="s">
+    </row>
+    <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C40" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="E34" s="36"/>
-    </row>
-    <row r="35" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="E35" s="36"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="C39" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="39" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="40"/>
+      <c r="D41" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="E40" s="36"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="39" t="s">
+      <c r="E41" s="40"/>
+      <c r="F41" s="45"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="40"/>
+      <c r="D42" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="E41" s="36"/>
-    </row>
-    <row r="42" spans="1:5" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="C42" s="40" t="s">
+      <c r="E42" s="40"/>
+      <c r="F42" s="45"/>
+    </row>
+    <row r="43" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="C43" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D43" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="E42" s="36"/>
-    </row>
-    <row r="43" spans="1:5" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
+      <c r="E43" s="40"/>
+      <c r="F43" s="45"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="36"/>
-    </row>
-    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37" t="s">
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+    </row>
+    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="39" t="s">
+      <c r="C45" s="40"/>
+      <c r="D45" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="E44" s="36"/>
-    </row>
-    <row r="45" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="43" t="s">
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B46" s="41"/>
+      <c r="C46" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="36"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="39" t="s">
+      <c r="D46" s="42"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C47" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D47" s="44" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="39" t="s">
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+    </row>
+    <row r="48" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C48" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="D47" s="38"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="39" t="s">
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+    </row>
+    <row r="49" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C49" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="D48" s="38"/>
-    </row>
-    <row r="49" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="39" t="s">
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+    </row>
+    <row r="50" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="C50" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D50" s="42" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="39" t="s">
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D51" s="42" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="43" t="s">
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="D51" s="38"/>
-    </row>
-    <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="39" t="s">
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+    </row>
+    <row r="53" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="C53" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D53" s="42" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="39" t="s">
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D54" s="42" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="39" t="s">
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+    </row>
+    <row r="55" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="C55" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D55" s="42" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" s="32" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="39" t="s">
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+    </row>
+    <row r="56" spans="2:6" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="C56" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D56" s="42" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="39" t="s">
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+    </row>
+    <row r="57" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C57" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="D56" s="39"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="39" t="s">
+      <c r="D57" s="42"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+    </row>
+    <row r="58" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C58" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D58" s="42" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="43" t="s">
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D59" s="42" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="39" t="s">
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+    </row>
+    <row r="60" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C60" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D60" s="42" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="39" t="s">
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+    </row>
+    <row r="61" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C61" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="D60" s="38"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="39" t="s">
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+    </row>
+    <row r="62" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C62" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="D61" s="38"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="36"/>
-      <c r="B62" s="37" t="s">
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+    </row>
+    <row r="63" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B63" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="D63" s="38"/>
-    </row>
-    <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="39" t="s">
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+    </row>
+    <row r="65" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C65" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="D64" s="38"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="39" t="s">
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+    </row>
+    <row r="66" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C66" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="D65" s="39" t="s">
+      <c r="D66" s="42" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="39" t="s">
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C67" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="D66" s="38"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="39" t="s">
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+    </row>
+    <row r="68" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C68" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D67" s="38"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="36"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="39" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+    </row>
+    <row r="69" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C69" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="D68" s="38"/>
-    </row>
-    <row r="69" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="39" t="s">
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+    </row>
+    <row r="70" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C70" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="D69" s="38"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="39" t="s">
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+    </row>
+    <row r="71" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C71" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="D70" s="38"/>
-    </row>
-    <row r="71" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="39" t="s">
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+    </row>
+    <row r="72" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C72" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D71" s="38"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="39" t="s">
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+    </row>
+    <row r="73" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C73" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="D72" s="38"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="39" t="s">
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+    </row>
+    <row r="74" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C74" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="D73" s="38"/>
-    </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="36"/>
-      <c r="B74" s="37" t="s">
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+    </row>
+    <row r="75" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39" t="s">
+      <c r="C75" s="40"/>
+      <c r="D75" s="42" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1"/>
-    <hyperlink ref="D28" r:id="rId2"/>
-    <hyperlink ref="D39" r:id="rId3"/>
-    <hyperlink ref="D46" r:id="rId4"/>
+    <hyperlink ref="D18" r:id="rId1"/>
+    <hyperlink ref="D29" r:id="rId2"/>
+    <hyperlink ref="D40" r:id="rId3"/>
+    <hyperlink ref="D47" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId5"/>

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="TrainingRequirements" sheetId="2" r:id="rId2"/>
     <sheet name="CI Setup" sheetId="3" r:id="rId3"/>
-    <sheet name="DockerCheatSheet" sheetId="4" r:id="rId4"/>
-    <sheet name="Jenkins CI" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Docker" sheetId="4" r:id="rId5"/>
+    <sheet name="K8s" sheetId="7" r:id="rId6"/>
+    <sheet name="Jenkins CI" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$36</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="523">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1259,12 +1261,533 @@
   <si>
     <t>$ yum install git</t>
   </si>
+  <si>
+    <t>$ pwd</t>
+  </si>
+  <si>
+    <t>/home/anodiam_adm</t>
+  </si>
+  <si>
+    <t>anodiam_adm</t>
+  </si>
+  <si>
+    <t>$ sudo usermod -aG wheel anodiam_adm</t>
+  </si>
+  <si>
+    <t>$ docker-compose version</t>
+  </si>
+  <si>
+    <t>$ docker version</t>
+  </si>
+  <si>
+    <t>Clone Git Repository</t>
+  </si>
+  <si>
+    <t>Install Docker &amp; Docker Compose</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: anodiam-standalone-instance-centos7-01
+Region, Machine Type, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CentOS 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>,
+Allow HTTP(S) &gt; Create</t>
+    </r>
+  </si>
+  <si>
+    <t>Setup Standalone GCP Instance</t>
+  </si>
+  <si>
+    <t>Add User to Admin Group</t>
+  </si>
+  <si>
+    <t>Create docker group and add user to the group</t>
+  </si>
+  <si>
+    <t>$ sudo groupadd docker</t>
+  </si>
+  <si>
+    <t>Add your user to the docker group</t>
+  </si>
+  <si>
+    <t>$ sudo usermod -aG docker ${USER}</t>
+  </si>
+  <si>
+    <t>$ su -s ${USER}</t>
+  </si>
+  <si>
+    <t>OR log out and log in</t>
+  </si>
+  <si>
+    <t>may give permission errors</t>
+  </si>
+  <si>
+    <t>Permission errors should be gone</t>
+  </si>
+  <si>
+    <t>Pull Jenkins Image</t>
+  </si>
+  <si>
+    <t>can be found in &gt;&gt; https://github.com/anodiamadm/infra-code/ &gt;&gt;  "jenkins-data/docker-compose.yml"</t>
+  </si>
+  <si>
+    <t>Set up Docker Compose File</t>
+  </si>
+  <si>
+    <r>
+      <t>At the same level of Docker Compose file, create a folder /home/anodiam_adm/infra-code/jenkins-data/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>jenkins_home</t>
+    </r>
+  </si>
+  <si>
+    <t>Setup Jenkins Home folder with proper permissions</t>
+  </si>
+  <si>
+    <t>user 1000 should be able to write to jenkins_home folder</t>
+  </si>
+  <si>
+    <t>$id</t>
+  </si>
+  <si>
+    <t>$ sudo chown 1000:1000 jenkins_home -R</t>
+  </si>
+  <si>
+    <t>$ ls -al</t>
+  </si>
+  <si>
+    <t>MUST show "drwxrwxr-x. 2 anodiam_adm anodiam_adm jenkins_home"</t>
+  </si>
+  <si>
+    <t>Run Docker Jenkins container</t>
+  </si>
+  <si>
+    <t>jenkins/jenkins</t>
+  </si>
+  <si>
+    <t>$ docker-compose up -d</t>
+  </si>
+  <si>
+    <t>$ docker ps</t>
+  </si>
+  <si>
+    <t>$ docker logs -f jenkins</t>
+  </si>
+  <si>
+    <t>password hex</t>
+  </si>
+  <si>
+    <t>go to http://ip_address:8080</t>
+  </si>
+  <si>
+    <t>put in above password, install suggested plugins, set admin user start Jenkins</t>
+  </si>
+  <si>
+    <t>$ ls jenkins_home</t>
+  </si>
+  <si>
+    <t>shows the contents of the jenkins volume</t>
+  </si>
+  <si>
+    <t>$ docker exec -ti jenkins bash</t>
+  </si>
+  <si>
+    <t>&gt;&gt; java</t>
+  </si>
+  <si>
+    <t>&gt;&gt; date</t>
+  </si>
+  <si>
+    <t>&gt;&gt; echo "current date is $(date)"</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/jenkins-from-zero-to-hero/learn/lecture/12847804#overview</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Subtopic</t>
+  </si>
+  <si>
+    <t>Descriptions</t>
+  </si>
+  <si>
+    <t>Technicals</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/gcp-data-engineer-and-cloud-architect/learn/lecture/7599964#overview</t>
+  </si>
+  <si>
+    <t>Udemy &gt;&gt; GCP Data Engineer and Cloud Architect</t>
+  </si>
+  <si>
+    <t>K8s</t>
+  </si>
+  <si>
+    <t>Pods</t>
+  </si>
+  <si>
+    <t>Create K8s Cluster: anodiam-practice-cluster</t>
+  </si>
+  <si>
+    <t>Create GKE Cluster</t>
+  </si>
+  <si>
+    <t>CLI $&gt;&gt; gcloud beta container --project "anodiamapp" clusters create "anodiam-practice-cluster" --zone "us-central1-c" --no-enable-basic-auth --cluster-version "1.16.13-gke.401" --machine-type "e2-medium" --image-type "COS" --disk-type "pd-standard" --disk-size "100" --metadata disable-legacy-endpoints=true --scopes "https://www.googleapis.com/auth/devstorage.read_only","https://www.googleapis.com/auth/logging.write","https://www.googleapis.com/auth/monitoring","https://www.googleapis.com/auth/servicecontrol","https://www.googleapis.com/auth/service.management.readonly","https://www.googleapis.com/auth/trace.append" --num-nodes "3" --enable-stackdriver-kubernetes --enable-ip-alias --network "projects/anodiamapp/global/networks/default" --subnetwork "projects/anodiamapp/regions/us-central1/subnetworks/default" --default-max-pods-per-node "110" --no-enable-master-authorized-networks --addons HorizontalPodAutoscaling,HttpLoadBalancing --enable-autoupgrade --enable-autorepair --max-surge-upgrade 1 --max-unavailable-upgrade 0</t>
+  </si>
+  <si>
+    <t>$ gcloud container clusters get-credentials anodiam-practice-cluster --zone us-central1-c --project anodiamapp</t>
+  </si>
+  <si>
+    <t>Connect to cluster from cloud shell</t>
+  </si>
+  <si>
+    <t>clone git repo into cloud shell</t>
+  </si>
+  <si>
+    <t>test a kubectl command</t>
+  </si>
+  <si>
+    <t>$ kubectl get pods</t>
+  </si>
+  <si>
+    <t>$ git clone https://github.com/anodiamadm/infra-practice.git</t>
+  </si>
+  <si>
+    <t>pod-definition file found in infra-practice/k8s/pod-definition.yml file</t>
+  </si>
+  <si>
+    <t>Create Pods</t>
+  </si>
+  <si>
+    <t>$ kubectl create -f pod-definition.yml
+$ kubectl apply -f pod-definition.yml</t>
+  </si>
+  <si>
+    <t>$ kubectl get pods
+$ kubectl describe pod myapp-pod</t>
+  </si>
+  <si>
+    <t>$ kubectl create -f postgress-pod-def.yml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notice the environment variables passed to postgress container in infra-practice/k8s/postgress-pod-def.yml </t>
+  </si>
+  <si>
+    <t>$ kubectl run nginx --image=nginx</t>
+  </si>
+  <si>
+    <t>Create nginx pod</t>
+  </si>
+  <si>
+    <t>Get image name from pod description</t>
+  </si>
+  <si>
+    <t>$ kubectl describe pod myapp-pod | grep -I image</t>
+  </si>
+  <si>
+    <t>$ kubectl get pods -o wide</t>
+  </si>
+  <si>
+    <t>Note: Multiple containers from multiple images (e.g. webapp and database) can be part of a Pod. That sort of a pod (called side-car) is created by adding all the containers in the Pod def file's spec: containers: section</t>
+  </si>
+  <si>
+    <t>Delete Pod</t>
+  </si>
+  <si>
+    <t>$ kubectl delete pod webapp</t>
+  </si>
+  <si>
+    <t>dry run a pod and create pod definition file</t>
+  </si>
+  <si>
+    <t>$ kubectl run redis --image=redis --dry-run=client -o yaml &gt; pod.yaml</t>
+  </si>
+  <si>
+    <t>$ vi pod.yaml</t>
+  </si>
+  <si>
+    <t>$ kubectl apply -f pod.yaml</t>
+  </si>
+  <si>
+    <t>$ kubectl edit pod redis</t>
+  </si>
+  <si>
+    <t>Replication Controllers &amp; Replica Sets</t>
+  </si>
+  <si>
+    <t>Replica Sets are lates technology. Replication Controllers are old</t>
+  </si>
+  <si>
+    <t>Definition file: infra-practice/k8s/003rep-controller-def.yml</t>
+  </si>
+  <si>
+    <t>$ kubectl create -f 003rep-controller-def.yml</t>
+  </si>
+  <si>
+    <t>$ kubectl get replicationcontroller</t>
+  </si>
+  <si>
+    <t>ReplicaSet requires selector: matchLabels field
+Can manage pods defined before the replica set creation</t>
+  </si>
+  <si>
+    <t>Definition file: infra-practice/k8s/004replica-set-def.yml</t>
+  </si>
+  <si>
+    <t>$ kubectl create -f 004replica-set-def.yml</t>
+  </si>
+  <si>
+    <t>$ kubectl get replicaset</t>
+  </si>
+  <si>
+    <t>$ kubectl replace -f 004replica-set-def.yml</t>
+  </si>
+  <si>
+    <t>In case replicaset definition file was updated, replace command will update the new specifications, say # of pods from 3 to 5 etc.</t>
+  </si>
+  <si>
+    <t>$ kubectl delete replicationcontroller myapp-rc</t>
+  </si>
+  <si>
+    <t>$ kubectl describe replicaset myapp-replicaset</t>
+  </si>
+  <si>
+    <t>$ kubectl edit replicaset myapp-replicaset</t>
+  </si>
+  <si>
+    <t>Can change definition files by kubectl edit command, though VM opens a system generated definition file, when saved, the original file is also updated</t>
+  </si>
+  <si>
+    <t>Deployments</t>
+  </si>
+  <si>
+    <t>$ kubectl get all</t>
+  </si>
+  <si>
+    <t>Definition file: infra-practice/k8s/005deployment-def.yml</t>
+  </si>
+  <si>
+    <t>$ kubectl create -f 005deployment-def.yml</t>
+  </si>
+  <si>
+    <t>$ kubectl get deployments</t>
+  </si>
+  <si>
+    <t>Deployment creates 1 replica set inside itself</t>
+  </si>
+  <si>
+    <t>$ kubectl describe deployments.apps myapp-deployment | grep -i image</t>
+  </si>
+  <si>
+    <t>$ kubectl rollout status deployment myapp-deployment</t>
+  </si>
+  <si>
+    <t>$ kubectl rollout history deployment myapp-deployment</t>
+  </si>
+  <si>
+    <t>Rolling update (no downtime) is the default deployment strategy
+Update the image version in deployment definition file and redeploy</t>
+  </si>
+  <si>
+    <t>$ kubectl apply -f 005deployment-def.yml</t>
+  </si>
+  <si>
+    <t>$ alias kt='kubectl'</t>
+  </si>
+  <si>
+    <t>$ kt describe deployment myapp-deployment</t>
+  </si>
+  <si>
+    <t>To see details of rollouts (Blue greens / Canary / Rolling etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see which replicaset replaced which one by the deployment: </t>
+  </si>
+  <si>
+    <t>Reference / Notes / Results</t>
+  </si>
+  <si>
+    <t>$ kt get replicasets</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ kt rollout undo deployment/myapp-deployment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$ kt get replicasets</t>
+    </r>
+  </si>
+  <si>
+    <t>Rollback</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Rollback a deployment: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>undo a Rollout by the deployment name
+current replicaset of the deployment is replaced by previous one</t>
+    </r>
+  </si>
+  <si>
+    <t>$ kt run nginx --image=nginx</t>
+  </si>
+  <si>
+    <t>kt run (intrinsic) command creates a deployment, not just a pod</t>
+  </si>
+  <si>
+    <t>NAME                        DESIRED   CURRENT   READY   AGE
+myapp-deployment-65cb    0         0              0            13h
+myapp-deployment-b966    2         2              2             5m47s</t>
+  </si>
+  <si>
+    <t>myapp-deployment-65cb    2         2              2            13h
+myapp-deployment-b966    0         0              0             6m23s</t>
+  </si>
+  <si>
+    <t>$ kt rollout history deployment.apps/myapp-deployment
+deployment.apps/myapp-deployment</t>
+  </si>
+  <si>
+    <t>Check Rollout History</t>
+  </si>
+  <si>
+    <t>REVISION      CHANGE-CAUSE
+2                      &lt;none&gt;
+3                      &lt;none&gt;</t>
+  </si>
+  <si>
+    <t>$ kubectl create -f 005deployment-def.yml --record</t>
+  </si>
+  <si>
+    <t>To record create command as CHANGE-CAUSE in history command</t>
+  </si>
+  <si>
+    <t>Networking, Services (node-port-external, cluster-ip, load-balancer)</t>
+  </si>
+  <si>
+    <t>$ kt create -f 006service-def.yml</t>
+  </si>
+  <si>
+    <t>$ kt get service</t>
+  </si>
+  <si>
+    <t>access http://IP.of.anyNode.inCluster:30008 &gt;&gt;&gt; web page displayed</t>
+  </si>
+  <si>
+    <t>Need to open port 30008 in a firewall rule to the cluster</t>
+  </si>
+  <si>
+    <t>NodePort</t>
+  </si>
+  <si>
+    <t>Target port = container port. Its default value it is equal to service port</t>
+  </si>
+  <si>
+    <t>Port = service port, This is mandatory field</t>
+  </si>
+  <si>
+    <t>Node Port can have value from 30000 to 32767. default chosen randomly</t>
+  </si>
+  <si>
+    <t>Selector to match labels on pod</t>
+  </si>
+  <si>
+    <t>Cluster IP</t>
+  </si>
+  <si>
+    <t>$ kt create -f 007backend-deployment-def.yml</t>
+  </si>
+  <si>
+    <t>$ kt create -f 008clusterIP-service-def.yml</t>
+  </si>
+  <si>
+    <t>$ kt get all</t>
+  </si>
+  <si>
+    <t>Load Balancer</t>
+  </si>
+  <si>
+    <t>Same as Node Port</t>
+  </si>
+  <si>
+    <t>Just Type = LoadBalancer</t>
+  </si>
+  <si>
+    <t>Only supported by managed cloud environments</t>
+  </si>
+  <si>
+    <t>Instead of accessing application by ip of any node
+load balancer could be used to access the application</t>
+  </si>
+  <si>
+    <t>$ kt get svc</t>
+  </si>
+  <si>
+    <t>$ kt describe svc back-end-service</t>
+  </si>
+  <si>
+    <t>End Points, Lavels, Ports etc are found from above command</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6elKAed1Yx4</t>
+  </si>
+  <si>
+    <t>Dockerize MySQL springBoot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1387,6 +1910,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1492,7 +2029,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1546,17 +2083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1587,6 +2114,76 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1603,6 +2200,220 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>197644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9858375" y="9334500"/>
+          <a:ext cx="5229225" cy="1876425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>404811</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>23816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3948111</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="404811" y="13335004"/>
+          <a:ext cx="5114925" cy="2021681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="619125" y="15811500"/>
+          <a:ext cx="3028950" cy="1435894"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3738562</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9882187" y="15799594"/>
+          <a:ext cx="3714750" cy="2126456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1822,31 +2633,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1916,11 +2727,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2605,6 +3416,14 @@
       </c>
       <c r="C53" s="32" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="B54" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -2661,736 +3480,736 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="42" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="42"/>
-    <col min="9" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="15.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" style="35" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="38" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="38"/>
+    <col min="9" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="42"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="40"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="3:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C19" s="42"/>
-      <c r="D19" s="42" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="42"/>
-      <c r="D20" s="42" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="F20" s="40"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="3:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C21" s="42"/>
-      <c r="D21" s="42" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="F21" s="40"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="3:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C22" s="42"/>
-      <c r="D22" s="42" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="F22" s="40"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="42"/>
-      <c r="D23" s="42" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="F23" s="40"/>
-    </row>
-    <row r="24" spans="3:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C24" s="42"/>
-      <c r="D24" s="42" t="s">
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="3:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="40"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="42"/>
-      <c r="D25" s="42" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="42"/>
-      <c r="D26" s="42" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="42"/>
-      <c r="D27" s="42" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="42"/>
-      <c r="D28" s="42" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="3:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="C30" s="42"/>
-      <c r="D30" s="45" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="42"/>
-      <c r="D31" s="45" t="s">
+      <c r="C31" s="38"/>
+      <c r="D31" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="42"/>
-      <c r="D32" s="45" t="s">
+      <c r="C32" s="38"/>
+      <c r="D32" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="45" t="s">
+      <c r="E34" s="38"/>
+      <c r="F34" s="41" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="40"/>
-      <c r="D35" s="42" t="s">
+      <c r="C35" s="36"/>
+      <c r="D35" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="45" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="41" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="40"/>
-      <c r="D36" s="42" t="s">
+      <c r="C36" s="36"/>
+      <c r="D36" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="45" t="s">
+      <c r="E36" s="36"/>
+      <c r="F36" s="41" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C37" s="40"/>
-      <c r="D37" s="42" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="G37" s="42" t="s">
+      <c r="G37" s="38" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="40"/>
-      <c r="D38" s="42" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="41" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C39" s="40"/>
-      <c r="D39" s="42" t="s">
+      <c r="C39" s="36"/>
+      <c r="D39" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="41" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="41" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C41" s="40"/>
-      <c r="D41" s="42" t="s">
+    <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C41" s="36"/>
+      <c r="D41" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="45"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C42" s="40"/>
-      <c r="D42" s="42" t="s">
+      <c r="C42" s="36"/>
+      <c r="D42" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="45"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="41"/>
     </row>
     <row r="43" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="45"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="41"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="42" t="s">
+      <c r="C45" s="36"/>
+      <c r="D45" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B46" s="41"/>
-      <c r="C46" s="46" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
     </row>
     <row r="49" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
     </row>
     <row r="50" spans="2:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
     </row>
     <row r="53" spans="2:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="D54" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
     </row>
     <row r="55" spans="2:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
     </row>
     <row r="56" spans="2:6" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
     </row>
     <row r="57" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
     </row>
     <row r="58" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="D58" s="42" t="s">
+      <c r="D58" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
     </row>
     <row r="60" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="D60" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
     </row>
     <row r="61" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
     </row>
     <row r="62" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
     </row>
     <row r="63" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
     </row>
     <row r="65" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
     </row>
     <row r="66" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
     </row>
     <row r="68" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
     </row>
     <row r="69" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
     </row>
     <row r="70" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
     </row>
     <row r="71" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C71" s="42" t="s">
+      <c r="C71" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
     </row>
     <row r="72" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C72" s="42" t="s">
+      <c r="C72" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
     </row>
     <row r="73" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
     </row>
     <row r="74" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C74" s="42" t="s">
+      <c r="C74" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
     </row>
     <row r="75" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="42" t="s">
+      <c r="C75" s="36"/>
+      <c r="D75" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3406,531 +4225,6091 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:W259"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="89.140625" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="35"/>
+      <c r="B2" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+    </row>
+    <row r="6" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+    </row>
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+    </row>
+    <row r="8" spans="1:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+    </row>
+    <row r="9" spans="1:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="35"/>
+      <c r="C10" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="35"/>
+      <c r="C11" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+    </row>
+    <row r="12" spans="1:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C13" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+    </row>
+    <row r="14" spans="1:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+    </row>
+    <row r="15" spans="1:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="51"/>
+      <c r="C15" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+    </row>
+    <row r="16" spans="1:23" s="33" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="51"/>
+      <c r="C16" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+    </row>
+    <row r="17" spans="2:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B17" s="51"/>
+      <c r="C17" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+    </row>
+    <row r="18" spans="2:23" s="33" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="51"/>
+      <c r="C18" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+    </row>
+    <row r="19" spans="2:23" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="51"/>
+      <c r="C19" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+    </row>
+    <row r="20" spans="2:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B20" s="51"/>
+      <c r="C20" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+    </row>
+    <row r="21" spans="2:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="51"/>
+      <c r="C21" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+    </row>
+    <row r="22" spans="2:23" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B22" s="51"/>
+      <c r="C22" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+    </row>
+    <row r="23" spans="2:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B23" s="51"/>
+      <c r="C23" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C24" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C25" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+    </row>
+    <row r="26" spans="2:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="B26" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C27" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C28" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C29" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C30" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C31" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+    </row>
+    <row r="32" spans="2:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C33" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+    </row>
+    <row r="34" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C35" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+    </row>
+    <row r="36" spans="2:17" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="B36" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C37" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C38" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C39" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C40" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C42" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C43" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C44" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C45" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C46" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C47" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C48" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C49" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C50" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+    </row>
+    <row r="65" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+    </row>
+    <row r="66" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+    </row>
+    <row r="67" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+    </row>
+    <row r="68" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+    </row>
+    <row r="69" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+    </row>
+    <row r="70" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+    </row>
+    <row r="71" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+    </row>
+    <row r="72" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+    </row>
+    <row r="73" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+    </row>
+    <row r="74" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+    </row>
+    <row r="75" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+    </row>
+    <row r="76" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+    </row>
+    <row r="77" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+    </row>
+    <row r="78" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+    </row>
+    <row r="79" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+    </row>
+    <row r="80" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="29"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="29"/>
+      <c r="P102" s="29"/>
+      <c r="Q102" s="29"/>
+    </row>
+    <row r="103" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="29"/>
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="29"/>
+    </row>
+    <row r="104" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="29"/>
+      <c r="P104" s="29"/>
+      <c r="Q104" s="29"/>
+    </row>
+    <row r="105" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="29"/>
+    </row>
+    <row r="106" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="29"/>
+    </row>
+    <row r="107" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+    </row>
+    <row r="108" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="29"/>
+      <c r="Q108" s="29"/>
+    </row>
+    <row r="109" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="29"/>
+    </row>
+    <row r="110" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
+      <c r="O110" s="29"/>
+      <c r="P110" s="29"/>
+      <c r="Q110" s="29"/>
+    </row>
+    <row r="111" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="29"/>
+      <c r="P111" s="29"/>
+      <c r="Q111" s="29"/>
+    </row>
+    <row r="112" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="29"/>
+    </row>
+    <row r="113" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="29"/>
+      <c r="Q113" s="29"/>
+    </row>
+    <row r="114" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="29"/>
+      <c r="O114" s="29"/>
+      <c r="P114" s="29"/>
+      <c r="Q114" s="29"/>
+    </row>
+    <row r="115" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="29"/>
+      <c r="O115" s="29"/>
+      <c r="P115" s="29"/>
+      <c r="Q115" s="29"/>
+    </row>
+    <row r="116" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
+      <c r="N116" s="29"/>
+      <c r="O116" s="29"/>
+      <c r="P116" s="29"/>
+      <c r="Q116" s="29"/>
+    </row>
+    <row r="117" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="29"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="29"/>
+      <c r="N117" s="29"/>
+      <c r="O117" s="29"/>
+      <c r="P117" s="29"/>
+      <c r="Q117" s="29"/>
+    </row>
+    <row r="118" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="29"/>
+      <c r="M118" s="29"/>
+      <c r="N118" s="29"/>
+      <c r="O118" s="29"/>
+      <c r="P118" s="29"/>
+      <c r="Q118" s="29"/>
+    </row>
+    <row r="119" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
+      <c r="N119" s="29"/>
+      <c r="O119" s="29"/>
+      <c r="P119" s="29"/>
+      <c r="Q119" s="29"/>
+    </row>
+    <row r="120" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
+      <c r="O120" s="29"/>
+      <c r="P120" s="29"/>
+      <c r="Q120" s="29"/>
+    </row>
+    <row r="121" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="29"/>
+      <c r="M121" s="29"/>
+      <c r="N121" s="29"/>
+      <c r="O121" s="29"/>
+      <c r="P121" s="29"/>
+      <c r="Q121" s="29"/>
+    </row>
+    <row r="122" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
+      <c r="N122" s="29"/>
+      <c r="O122" s="29"/>
+      <c r="P122" s="29"/>
+      <c r="Q122" s="29"/>
+    </row>
+    <row r="123" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="29"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="29"/>
+      <c r="M123" s="29"/>
+      <c r="N123" s="29"/>
+      <c r="O123" s="29"/>
+      <c r="P123" s="29"/>
+      <c r="Q123" s="29"/>
+    </row>
+    <row r="124" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="29"/>
+      <c r="M124" s="29"/>
+      <c r="N124" s="29"/>
+      <c r="O124" s="29"/>
+      <c r="P124" s="29"/>
+      <c r="Q124" s="29"/>
+    </row>
+    <row r="125" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="29"/>
+      <c r="M125" s="29"/>
+      <c r="N125" s="29"/>
+      <c r="O125" s="29"/>
+      <c r="P125" s="29"/>
+      <c r="Q125" s="29"/>
+    </row>
+    <row r="126" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="29"/>
+      <c r="M126" s="29"/>
+      <c r="N126" s="29"/>
+      <c r="O126" s="29"/>
+      <c r="P126" s="29"/>
+      <c r="Q126" s="29"/>
+    </row>
+    <row r="127" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="29"/>
+      <c r="M127" s="29"/>
+      <c r="N127" s="29"/>
+      <c r="O127" s="29"/>
+      <c r="P127" s="29"/>
+      <c r="Q127" s="29"/>
+    </row>
+    <row r="128" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="29"/>
+      <c r="M128" s="29"/>
+      <c r="N128" s="29"/>
+      <c r="O128" s="29"/>
+      <c r="P128" s="29"/>
+      <c r="Q128" s="29"/>
+    </row>
+    <row r="129" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="29"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="29"/>
+      <c r="O129" s="29"/>
+      <c r="P129" s="29"/>
+      <c r="Q129" s="29"/>
+    </row>
+    <row r="130" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="29"/>
+      <c r="M130" s="29"/>
+      <c r="N130" s="29"/>
+      <c r="O130" s="29"/>
+      <c r="P130" s="29"/>
+      <c r="Q130" s="29"/>
+    </row>
+    <row r="131" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="29"/>
+      <c r="L131" s="29"/>
+      <c r="M131" s="29"/>
+      <c r="N131" s="29"/>
+      <c r="O131" s="29"/>
+      <c r="P131" s="29"/>
+      <c r="Q131" s="29"/>
+    </row>
+    <row r="132" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="29"/>
+      <c r="O132" s="29"/>
+      <c r="P132" s="29"/>
+      <c r="Q132" s="29"/>
+    </row>
+    <row r="133" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
+      <c r="K133" s="29"/>
+      <c r="L133" s="29"/>
+      <c r="M133" s="29"/>
+      <c r="N133" s="29"/>
+      <c r="O133" s="29"/>
+      <c r="P133" s="29"/>
+      <c r="Q133" s="29"/>
+    </row>
+    <row r="134" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="29"/>
+      <c r="M134" s="29"/>
+      <c r="N134" s="29"/>
+      <c r="O134" s="29"/>
+      <c r="P134" s="29"/>
+      <c r="Q134" s="29"/>
+    </row>
+    <row r="135" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
+      <c r="K135" s="29"/>
+      <c r="L135" s="29"/>
+      <c r="M135" s="29"/>
+      <c r="N135" s="29"/>
+      <c r="O135" s="29"/>
+      <c r="P135" s="29"/>
+      <c r="Q135" s="29"/>
+    </row>
+    <row r="136" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="29"/>
+      <c r="M136" s="29"/>
+      <c r="N136" s="29"/>
+      <c r="O136" s="29"/>
+      <c r="P136" s="29"/>
+      <c r="Q136" s="29"/>
+    </row>
+    <row r="137" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="29"/>
+      <c r="K137" s="29"/>
+      <c r="L137" s="29"/>
+      <c r="M137" s="29"/>
+      <c r="N137" s="29"/>
+      <c r="O137" s="29"/>
+      <c r="P137" s="29"/>
+      <c r="Q137" s="29"/>
+    </row>
+    <row r="138" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="29"/>
+      <c r="M138" s="29"/>
+      <c r="N138" s="29"/>
+      <c r="O138" s="29"/>
+      <c r="P138" s="29"/>
+      <c r="Q138" s="29"/>
+    </row>
+    <row r="139" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="29"/>
+      <c r="K139" s="29"/>
+      <c r="L139" s="29"/>
+      <c r="M139" s="29"/>
+      <c r="N139" s="29"/>
+      <c r="O139" s="29"/>
+      <c r="P139" s="29"/>
+      <c r="Q139" s="29"/>
+    </row>
+    <row r="140" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="29"/>
+      <c r="K140" s="29"/>
+      <c r="L140" s="29"/>
+      <c r="M140" s="29"/>
+      <c r="N140" s="29"/>
+      <c r="O140" s="29"/>
+      <c r="P140" s="29"/>
+      <c r="Q140" s="29"/>
+    </row>
+    <row r="141" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="29"/>
+      <c r="L141" s="29"/>
+      <c r="M141" s="29"/>
+      <c r="N141" s="29"/>
+      <c r="O141" s="29"/>
+      <c r="P141" s="29"/>
+      <c r="Q141" s="29"/>
+    </row>
+    <row r="142" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="29"/>
+      <c r="K142" s="29"/>
+      <c r="L142" s="29"/>
+      <c r="M142" s="29"/>
+      <c r="N142" s="29"/>
+      <c r="O142" s="29"/>
+      <c r="P142" s="29"/>
+      <c r="Q142" s="29"/>
+    </row>
+    <row r="143" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="29"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="29"/>
+      <c r="M143" s="29"/>
+      <c r="N143" s="29"/>
+      <c r="O143" s="29"/>
+      <c r="P143" s="29"/>
+      <c r="Q143" s="29"/>
+    </row>
+    <row r="144" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="29"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="29"/>
+      <c r="M144" s="29"/>
+      <c r="N144" s="29"/>
+      <c r="O144" s="29"/>
+      <c r="P144" s="29"/>
+      <c r="Q144" s="29"/>
+    </row>
+    <row r="145" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="29"/>
+      <c r="K145" s="29"/>
+      <c r="L145" s="29"/>
+      <c r="M145" s="29"/>
+      <c r="N145" s="29"/>
+      <c r="O145" s="29"/>
+      <c r="P145" s="29"/>
+      <c r="Q145" s="29"/>
+    </row>
+    <row r="146" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="29"/>
+      <c r="M146" s="29"/>
+      <c r="N146" s="29"/>
+      <c r="O146" s="29"/>
+      <c r="P146" s="29"/>
+      <c r="Q146" s="29"/>
+    </row>
+    <row r="147" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="29"/>
+      <c r="K147" s="29"/>
+      <c r="L147" s="29"/>
+      <c r="M147" s="29"/>
+      <c r="N147" s="29"/>
+      <c r="O147" s="29"/>
+      <c r="P147" s="29"/>
+      <c r="Q147" s="29"/>
+    </row>
+    <row r="148" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="29"/>
+      <c r="M148" s="29"/>
+      <c r="N148" s="29"/>
+      <c r="O148" s="29"/>
+      <c r="P148" s="29"/>
+      <c r="Q148" s="29"/>
+    </row>
+    <row r="149" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="29"/>
+      <c r="K149" s="29"/>
+      <c r="L149" s="29"/>
+      <c r="M149" s="29"/>
+      <c r="N149" s="29"/>
+      <c r="O149" s="29"/>
+      <c r="P149" s="29"/>
+      <c r="Q149" s="29"/>
+    </row>
+    <row r="150" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="29"/>
+      <c r="J150" s="29"/>
+      <c r="K150" s="29"/>
+      <c r="L150" s="29"/>
+      <c r="M150" s="29"/>
+      <c r="N150" s="29"/>
+      <c r="O150" s="29"/>
+      <c r="P150" s="29"/>
+      <c r="Q150" s="29"/>
+    </row>
+    <row r="151" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="29"/>
+      <c r="J151" s="29"/>
+      <c r="K151" s="29"/>
+      <c r="L151" s="29"/>
+      <c r="M151" s="29"/>
+      <c r="N151" s="29"/>
+      <c r="O151" s="29"/>
+      <c r="P151" s="29"/>
+      <c r="Q151" s="29"/>
+    </row>
+    <row r="152" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="29"/>
+      <c r="J152" s="29"/>
+      <c r="K152" s="29"/>
+      <c r="L152" s="29"/>
+      <c r="M152" s="29"/>
+      <c r="N152" s="29"/>
+      <c r="O152" s="29"/>
+      <c r="P152" s="29"/>
+      <c r="Q152" s="29"/>
+    </row>
+    <row r="153" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="29"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="29"/>
+      <c r="M153" s="29"/>
+      <c r="N153" s="29"/>
+      <c r="O153" s="29"/>
+      <c r="P153" s="29"/>
+      <c r="Q153" s="29"/>
+    </row>
+    <row r="154" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="29"/>
+      <c r="J154" s="29"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="29"/>
+      <c r="M154" s="29"/>
+      <c r="N154" s="29"/>
+      <c r="O154" s="29"/>
+      <c r="P154" s="29"/>
+      <c r="Q154" s="29"/>
+    </row>
+    <row r="155" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="29"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="29"/>
+      <c r="M155" s="29"/>
+      <c r="N155" s="29"/>
+      <c r="O155" s="29"/>
+      <c r="P155" s="29"/>
+      <c r="Q155" s="29"/>
+    </row>
+    <row r="156" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="29"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="29"/>
+      <c r="M156" s="29"/>
+      <c r="N156" s="29"/>
+      <c r="O156" s="29"/>
+      <c r="P156" s="29"/>
+      <c r="Q156" s="29"/>
+    </row>
+    <row r="157" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="29"/>
+      <c r="L157" s="29"/>
+      <c r="M157" s="29"/>
+      <c r="N157" s="29"/>
+      <c r="O157" s="29"/>
+      <c r="P157" s="29"/>
+      <c r="Q157" s="29"/>
+    </row>
+    <row r="158" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="29"/>
+      <c r="K158" s="29"/>
+      <c r="L158" s="29"/>
+      <c r="M158" s="29"/>
+      <c r="N158" s="29"/>
+      <c r="O158" s="29"/>
+      <c r="P158" s="29"/>
+      <c r="Q158" s="29"/>
+    </row>
+    <row r="159" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="29"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="29"/>
+      <c r="M159" s="29"/>
+      <c r="N159" s="29"/>
+      <c r="O159" s="29"/>
+      <c r="P159" s="29"/>
+      <c r="Q159" s="29"/>
+    </row>
+    <row r="160" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="29"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="29"/>
+      <c r="M160" s="29"/>
+      <c r="N160" s="29"/>
+      <c r="O160" s="29"/>
+      <c r="P160" s="29"/>
+      <c r="Q160" s="29"/>
+    </row>
+    <row r="161" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="29"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="29"/>
+      <c r="O161" s="29"/>
+      <c r="P161" s="29"/>
+      <c r="Q161" s="29"/>
+    </row>
+    <row r="162" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C162" s="29"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="29"/>
+      <c r="F162" s="29"/>
+      <c r="G162" s="29"/>
+      <c r="H162" s="29"/>
+      <c r="I162" s="29"/>
+      <c r="J162" s="29"/>
+      <c r="K162" s="29"/>
+      <c r="L162" s="29"/>
+      <c r="M162" s="29"/>
+      <c r="N162" s="29"/>
+      <c r="O162" s="29"/>
+      <c r="P162" s="29"/>
+      <c r="Q162" s="29"/>
+    </row>
+    <row r="163" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29"/>
+      <c r="I163" s="29"/>
+      <c r="J163" s="29"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="29"/>
+      <c r="M163" s="29"/>
+      <c r="N163" s="29"/>
+      <c r="O163" s="29"/>
+      <c r="P163" s="29"/>
+      <c r="Q163" s="29"/>
+    </row>
+    <row r="164" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="29"/>
+      <c r="F164" s="29"/>
+      <c r="G164" s="29"/>
+      <c r="H164" s="29"/>
+      <c r="I164" s="29"/>
+      <c r="J164" s="29"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="29"/>
+      <c r="M164" s="29"/>
+      <c r="N164" s="29"/>
+      <c r="O164" s="29"/>
+      <c r="P164" s="29"/>
+      <c r="Q164" s="29"/>
+    </row>
+    <row r="165" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="29"/>
+      <c r="H165" s="29"/>
+      <c r="I165" s="29"/>
+      <c r="J165" s="29"/>
+      <c r="K165" s="29"/>
+      <c r="L165" s="29"/>
+      <c r="M165" s="29"/>
+      <c r="N165" s="29"/>
+      <c r="O165" s="29"/>
+      <c r="P165" s="29"/>
+      <c r="Q165" s="29"/>
+    </row>
+    <row r="166" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
+      <c r="I166" s="29"/>
+      <c r="J166" s="29"/>
+      <c r="K166" s="29"/>
+      <c r="L166" s="29"/>
+      <c r="M166" s="29"/>
+      <c r="N166" s="29"/>
+      <c r="O166" s="29"/>
+      <c r="P166" s="29"/>
+      <c r="Q166" s="29"/>
+    </row>
+    <row r="167" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="29"/>
+      <c r="I167" s="29"/>
+      <c r="J167" s="29"/>
+      <c r="K167" s="29"/>
+      <c r="L167" s="29"/>
+      <c r="M167" s="29"/>
+      <c r="N167" s="29"/>
+      <c r="O167" s="29"/>
+      <c r="P167" s="29"/>
+      <c r="Q167" s="29"/>
+    </row>
+    <row r="168" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C168" s="29"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="29"/>
+      <c r="F168" s="29"/>
+      <c r="G168" s="29"/>
+      <c r="H168" s="29"/>
+      <c r="I168" s="29"/>
+      <c r="J168" s="29"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="29"/>
+      <c r="M168" s="29"/>
+      <c r="N168" s="29"/>
+      <c r="O168" s="29"/>
+      <c r="P168" s="29"/>
+      <c r="Q168" s="29"/>
+    </row>
+    <row r="169" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="29"/>
+      <c r="H169" s="29"/>
+      <c r="I169" s="29"/>
+      <c r="J169" s="29"/>
+      <c r="K169" s="29"/>
+      <c r="L169" s="29"/>
+      <c r="M169" s="29"/>
+      <c r="N169" s="29"/>
+      <c r="O169" s="29"/>
+      <c r="P169" s="29"/>
+      <c r="Q169" s="29"/>
+    </row>
+    <row r="170" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="29"/>
+      <c r="H170" s="29"/>
+      <c r="I170" s="29"/>
+      <c r="J170" s="29"/>
+      <c r="K170" s="29"/>
+      <c r="L170" s="29"/>
+      <c r="M170" s="29"/>
+      <c r="N170" s="29"/>
+      <c r="O170" s="29"/>
+      <c r="P170" s="29"/>
+      <c r="Q170" s="29"/>
+    </row>
+    <row r="171" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="29"/>
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
+      <c r="I171" s="29"/>
+      <c r="J171" s="29"/>
+      <c r="K171" s="29"/>
+      <c r="L171" s="29"/>
+      <c r="M171" s="29"/>
+      <c r="N171" s="29"/>
+      <c r="O171" s="29"/>
+      <c r="P171" s="29"/>
+      <c r="Q171" s="29"/>
+    </row>
+    <row r="172" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
+      <c r="F172" s="29"/>
+      <c r="G172" s="29"/>
+      <c r="H172" s="29"/>
+      <c r="I172" s="29"/>
+      <c r="J172" s="29"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="29"/>
+      <c r="M172" s="29"/>
+      <c r="N172" s="29"/>
+      <c r="O172" s="29"/>
+      <c r="P172" s="29"/>
+      <c r="Q172" s="29"/>
+    </row>
+    <row r="173" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C173" s="29"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="29"/>
+      <c r="F173" s="29"/>
+      <c r="G173" s="29"/>
+      <c r="H173" s="29"/>
+      <c r="I173" s="29"/>
+      <c r="J173" s="29"/>
+      <c r="K173" s="29"/>
+      <c r="L173" s="29"/>
+      <c r="M173" s="29"/>
+      <c r="N173" s="29"/>
+      <c r="O173" s="29"/>
+      <c r="P173" s="29"/>
+      <c r="Q173" s="29"/>
+    </row>
+    <row r="174" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C174" s="29"/>
+      <c r="D174" s="29"/>
+      <c r="E174" s="29"/>
+      <c r="F174" s="29"/>
+      <c r="G174" s="29"/>
+      <c r="H174" s="29"/>
+      <c r="I174" s="29"/>
+      <c r="J174" s="29"/>
+      <c r="K174" s="29"/>
+      <c r="L174" s="29"/>
+      <c r="M174" s="29"/>
+      <c r="N174" s="29"/>
+      <c r="O174" s="29"/>
+      <c r="P174" s="29"/>
+      <c r="Q174" s="29"/>
+    </row>
+    <row r="175" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="29"/>
+      <c r="F175" s="29"/>
+      <c r="G175" s="29"/>
+      <c r="H175" s="29"/>
+      <c r="I175" s="29"/>
+      <c r="J175" s="29"/>
+      <c r="K175" s="29"/>
+      <c r="L175" s="29"/>
+      <c r="M175" s="29"/>
+      <c r="N175" s="29"/>
+      <c r="O175" s="29"/>
+      <c r="P175" s="29"/>
+      <c r="Q175" s="29"/>
+    </row>
+    <row r="176" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C176" s="29"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="29"/>
+      <c r="F176" s="29"/>
+      <c r="G176" s="29"/>
+      <c r="H176" s="29"/>
+      <c r="I176" s="29"/>
+      <c r="J176" s="29"/>
+      <c r="K176" s="29"/>
+      <c r="L176" s="29"/>
+      <c r="M176" s="29"/>
+      <c r="N176" s="29"/>
+      <c r="O176" s="29"/>
+      <c r="P176" s="29"/>
+      <c r="Q176" s="29"/>
+    </row>
+    <row r="177" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="29"/>
+      <c r="H177" s="29"/>
+      <c r="I177" s="29"/>
+      <c r="J177" s="29"/>
+      <c r="K177" s="29"/>
+      <c r="L177" s="29"/>
+      <c r="M177" s="29"/>
+      <c r="N177" s="29"/>
+      <c r="O177" s="29"/>
+      <c r="P177" s="29"/>
+      <c r="Q177" s="29"/>
+    </row>
+    <row r="178" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="29"/>
+      <c r="F178" s="29"/>
+      <c r="G178" s="29"/>
+      <c r="H178" s="29"/>
+      <c r="I178" s="29"/>
+      <c r="J178" s="29"/>
+      <c r="K178" s="29"/>
+      <c r="L178" s="29"/>
+      <c r="M178" s="29"/>
+      <c r="N178" s="29"/>
+      <c r="O178" s="29"/>
+      <c r="P178" s="29"/>
+      <c r="Q178" s="29"/>
+    </row>
+    <row r="179" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="29"/>
+      <c r="F179" s="29"/>
+      <c r="G179" s="29"/>
+      <c r="H179" s="29"/>
+      <c r="I179" s="29"/>
+      <c r="J179" s="29"/>
+      <c r="K179" s="29"/>
+      <c r="L179" s="29"/>
+      <c r="M179" s="29"/>
+      <c r="N179" s="29"/>
+      <c r="O179" s="29"/>
+      <c r="P179" s="29"/>
+      <c r="Q179" s="29"/>
+    </row>
+    <row r="180" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="29"/>
+      <c r="F180" s="29"/>
+      <c r="G180" s="29"/>
+      <c r="H180" s="29"/>
+      <c r="I180" s="29"/>
+      <c r="J180" s="29"/>
+      <c r="K180" s="29"/>
+      <c r="L180" s="29"/>
+      <c r="M180" s="29"/>
+      <c r="N180" s="29"/>
+      <c r="O180" s="29"/>
+      <c r="P180" s="29"/>
+      <c r="Q180" s="29"/>
+    </row>
+    <row r="181" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C181" s="29"/>
+      <c r="D181" s="29"/>
+      <c r="E181" s="29"/>
+      <c r="F181" s="29"/>
+      <c r="G181" s="29"/>
+      <c r="H181" s="29"/>
+      <c r="I181" s="29"/>
+      <c r="J181" s="29"/>
+      <c r="K181" s="29"/>
+      <c r="L181" s="29"/>
+      <c r="M181" s="29"/>
+      <c r="N181" s="29"/>
+      <c r="O181" s="29"/>
+      <c r="P181" s="29"/>
+      <c r="Q181" s="29"/>
+    </row>
+    <row r="182" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="29"/>
+      <c r="F182" s="29"/>
+      <c r="G182" s="29"/>
+      <c r="H182" s="29"/>
+      <c r="I182" s="29"/>
+      <c r="J182" s="29"/>
+      <c r="K182" s="29"/>
+      <c r="L182" s="29"/>
+      <c r="M182" s="29"/>
+      <c r="N182" s="29"/>
+      <c r="O182" s="29"/>
+      <c r="P182" s="29"/>
+      <c r="Q182" s="29"/>
+    </row>
+    <row r="183" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C183" s="29"/>
+      <c r="D183" s="29"/>
+      <c r="E183" s="29"/>
+      <c r="F183" s="29"/>
+      <c r="G183" s="29"/>
+      <c r="H183" s="29"/>
+      <c r="I183" s="29"/>
+      <c r="J183" s="29"/>
+      <c r="K183" s="29"/>
+      <c r="L183" s="29"/>
+      <c r="M183" s="29"/>
+      <c r="N183" s="29"/>
+      <c r="O183" s="29"/>
+      <c r="P183" s="29"/>
+      <c r="Q183" s="29"/>
+    </row>
+    <row r="184" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C184" s="29"/>
+      <c r="D184" s="29"/>
+      <c r="E184" s="29"/>
+      <c r="F184" s="29"/>
+      <c r="G184" s="29"/>
+      <c r="H184" s="29"/>
+      <c r="I184" s="29"/>
+      <c r="J184" s="29"/>
+      <c r="K184" s="29"/>
+      <c r="L184" s="29"/>
+      <c r="M184" s="29"/>
+      <c r="N184" s="29"/>
+      <c r="O184" s="29"/>
+      <c r="P184" s="29"/>
+      <c r="Q184" s="29"/>
+    </row>
+    <row r="185" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C185" s="29"/>
+      <c r="D185" s="29"/>
+      <c r="E185" s="29"/>
+      <c r="F185" s="29"/>
+      <c r="G185" s="29"/>
+      <c r="H185" s="29"/>
+      <c r="I185" s="29"/>
+      <c r="J185" s="29"/>
+      <c r="K185" s="29"/>
+      <c r="L185" s="29"/>
+      <c r="M185" s="29"/>
+      <c r="N185" s="29"/>
+      <c r="O185" s="29"/>
+      <c r="P185" s="29"/>
+      <c r="Q185" s="29"/>
+    </row>
+    <row r="186" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C186" s="29"/>
+      <c r="D186" s="29"/>
+      <c r="E186" s="29"/>
+      <c r="F186" s="29"/>
+      <c r="G186" s="29"/>
+      <c r="H186" s="29"/>
+      <c r="I186" s="29"/>
+      <c r="J186" s="29"/>
+      <c r="K186" s="29"/>
+      <c r="L186" s="29"/>
+      <c r="M186" s="29"/>
+      <c r="N186" s="29"/>
+      <c r="O186" s="29"/>
+      <c r="P186" s="29"/>
+      <c r="Q186" s="29"/>
+    </row>
+    <row r="187" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C187" s="29"/>
+      <c r="D187" s="29"/>
+      <c r="E187" s="29"/>
+      <c r="F187" s="29"/>
+      <c r="G187" s="29"/>
+      <c r="H187" s="29"/>
+      <c r="I187" s="29"/>
+      <c r="J187" s="29"/>
+      <c r="K187" s="29"/>
+      <c r="L187" s="29"/>
+      <c r="M187" s="29"/>
+      <c r="N187" s="29"/>
+      <c r="O187" s="29"/>
+      <c r="P187" s="29"/>
+      <c r="Q187" s="29"/>
+    </row>
+    <row r="188" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="29"/>
+      <c r="F188" s="29"/>
+      <c r="G188" s="29"/>
+      <c r="H188" s="29"/>
+      <c r="I188" s="29"/>
+      <c r="J188" s="29"/>
+      <c r="K188" s="29"/>
+      <c r="L188" s="29"/>
+      <c r="M188" s="29"/>
+      <c r="N188" s="29"/>
+      <c r="O188" s="29"/>
+      <c r="P188" s="29"/>
+      <c r="Q188" s="29"/>
+    </row>
+    <row r="189" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C189" s="29"/>
+      <c r="D189" s="29"/>
+      <c r="E189" s="29"/>
+      <c r="F189" s="29"/>
+      <c r="G189" s="29"/>
+      <c r="H189" s="29"/>
+      <c r="I189" s="29"/>
+      <c r="J189" s="29"/>
+      <c r="K189" s="29"/>
+      <c r="L189" s="29"/>
+      <c r="M189" s="29"/>
+      <c r="N189" s="29"/>
+      <c r="O189" s="29"/>
+      <c r="P189" s="29"/>
+      <c r="Q189" s="29"/>
+    </row>
+    <row r="190" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C190" s="29"/>
+      <c r="D190" s="29"/>
+      <c r="E190" s="29"/>
+      <c r="F190" s="29"/>
+      <c r="G190" s="29"/>
+      <c r="H190" s="29"/>
+      <c r="I190" s="29"/>
+      <c r="J190" s="29"/>
+      <c r="K190" s="29"/>
+      <c r="L190" s="29"/>
+      <c r="M190" s="29"/>
+      <c r="N190" s="29"/>
+      <c r="O190" s="29"/>
+      <c r="P190" s="29"/>
+      <c r="Q190" s="29"/>
+    </row>
+    <row r="191" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C191" s="29"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="29"/>
+      <c r="F191" s="29"/>
+      <c r="G191" s="29"/>
+      <c r="H191" s="29"/>
+      <c r="I191" s="29"/>
+      <c r="J191" s="29"/>
+      <c r="K191" s="29"/>
+      <c r="L191" s="29"/>
+      <c r="M191" s="29"/>
+      <c r="N191" s="29"/>
+      <c r="O191" s="29"/>
+      <c r="P191" s="29"/>
+      <c r="Q191" s="29"/>
+    </row>
+    <row r="192" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C192" s="29"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="29"/>
+      <c r="F192" s="29"/>
+      <c r="G192" s="29"/>
+      <c r="H192" s="29"/>
+      <c r="I192" s="29"/>
+      <c r="J192" s="29"/>
+      <c r="K192" s="29"/>
+      <c r="L192" s="29"/>
+      <c r="M192" s="29"/>
+      <c r="N192" s="29"/>
+      <c r="O192" s="29"/>
+      <c r="P192" s="29"/>
+      <c r="Q192" s="29"/>
+    </row>
+    <row r="193" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C193" s="29"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="29"/>
+      <c r="F193" s="29"/>
+      <c r="G193" s="29"/>
+      <c r="H193" s="29"/>
+      <c r="I193" s="29"/>
+      <c r="J193" s="29"/>
+      <c r="K193" s="29"/>
+      <c r="L193" s="29"/>
+      <c r="M193" s="29"/>
+      <c r="N193" s="29"/>
+      <c r="O193" s="29"/>
+      <c r="P193" s="29"/>
+      <c r="Q193" s="29"/>
+    </row>
+    <row r="194" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C194" s="29"/>
+      <c r="D194" s="29"/>
+      <c r="E194" s="29"/>
+      <c r="F194" s="29"/>
+      <c r="G194" s="29"/>
+      <c r="H194" s="29"/>
+      <c r="I194" s="29"/>
+      <c r="J194" s="29"/>
+      <c r="K194" s="29"/>
+      <c r="L194" s="29"/>
+      <c r="M194" s="29"/>
+      <c r="N194" s="29"/>
+      <c r="O194" s="29"/>
+      <c r="P194" s="29"/>
+      <c r="Q194" s="29"/>
+    </row>
+    <row r="195" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C195" s="29"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="29"/>
+      <c r="F195" s="29"/>
+      <c r="G195" s="29"/>
+      <c r="H195" s="29"/>
+      <c r="I195" s="29"/>
+      <c r="J195" s="29"/>
+      <c r="K195" s="29"/>
+      <c r="L195" s="29"/>
+      <c r="M195" s="29"/>
+      <c r="N195" s="29"/>
+      <c r="O195" s="29"/>
+      <c r="P195" s="29"/>
+      <c r="Q195" s="29"/>
+    </row>
+    <row r="196" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C196" s="29"/>
+      <c r="D196" s="29"/>
+      <c r="E196" s="29"/>
+      <c r="F196" s="29"/>
+      <c r="G196" s="29"/>
+      <c r="H196" s="29"/>
+      <c r="I196" s="29"/>
+      <c r="J196" s="29"/>
+      <c r="K196" s="29"/>
+      <c r="L196" s="29"/>
+      <c r="M196" s="29"/>
+      <c r="N196" s="29"/>
+      <c r="O196" s="29"/>
+      <c r="P196" s="29"/>
+      <c r="Q196" s="29"/>
+    </row>
+    <row r="197" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C197" s="29"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="29"/>
+      <c r="F197" s="29"/>
+      <c r="G197" s="29"/>
+      <c r="H197" s="29"/>
+      <c r="I197" s="29"/>
+      <c r="J197" s="29"/>
+      <c r="K197" s="29"/>
+      <c r="L197" s="29"/>
+      <c r="M197" s="29"/>
+      <c r="N197" s="29"/>
+      <c r="O197" s="29"/>
+      <c r="P197" s="29"/>
+      <c r="Q197" s="29"/>
+    </row>
+    <row r="198" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C198" s="29"/>
+      <c r="D198" s="29"/>
+      <c r="E198" s="29"/>
+      <c r="F198" s="29"/>
+      <c r="G198" s="29"/>
+      <c r="H198" s="29"/>
+      <c r="I198" s="29"/>
+      <c r="J198" s="29"/>
+      <c r="K198" s="29"/>
+      <c r="L198" s="29"/>
+      <c r="M198" s="29"/>
+      <c r="N198" s="29"/>
+      <c r="O198" s="29"/>
+      <c r="P198" s="29"/>
+      <c r="Q198" s="29"/>
+    </row>
+    <row r="199" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C199" s="29"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="29"/>
+      <c r="F199" s="29"/>
+      <c r="G199" s="29"/>
+      <c r="H199" s="29"/>
+      <c r="I199" s="29"/>
+      <c r="J199" s="29"/>
+      <c r="K199" s="29"/>
+      <c r="L199" s="29"/>
+      <c r="M199" s="29"/>
+      <c r="N199" s="29"/>
+      <c r="O199" s="29"/>
+      <c r="P199" s="29"/>
+      <c r="Q199" s="29"/>
+    </row>
+    <row r="200" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C200" s="29"/>
+      <c r="D200" s="29"/>
+      <c r="E200" s="29"/>
+      <c r="F200" s="29"/>
+      <c r="G200" s="29"/>
+      <c r="H200" s="29"/>
+      <c r="I200" s="29"/>
+      <c r="J200" s="29"/>
+      <c r="K200" s="29"/>
+      <c r="L200" s="29"/>
+      <c r="M200" s="29"/>
+      <c r="N200" s="29"/>
+      <c r="O200" s="29"/>
+      <c r="P200" s="29"/>
+      <c r="Q200" s="29"/>
+    </row>
+    <row r="201" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C201" s="29"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="29"/>
+      <c r="F201" s="29"/>
+      <c r="G201" s="29"/>
+      <c r="H201" s="29"/>
+      <c r="I201" s="29"/>
+      <c r="J201" s="29"/>
+      <c r="K201" s="29"/>
+      <c r="L201" s="29"/>
+      <c r="M201" s="29"/>
+      <c r="N201" s="29"/>
+      <c r="O201" s="29"/>
+      <c r="P201" s="29"/>
+      <c r="Q201" s="29"/>
+    </row>
+    <row r="202" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C202" s="29"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="29"/>
+      <c r="F202" s="29"/>
+      <c r="G202" s="29"/>
+      <c r="H202" s="29"/>
+      <c r="I202" s="29"/>
+      <c r="J202" s="29"/>
+      <c r="K202" s="29"/>
+      <c r="L202" s="29"/>
+      <c r="M202" s="29"/>
+      <c r="N202" s="29"/>
+      <c r="O202" s="29"/>
+      <c r="P202" s="29"/>
+      <c r="Q202" s="29"/>
+    </row>
+    <row r="203" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C203" s="29"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="29"/>
+      <c r="F203" s="29"/>
+      <c r="G203" s="29"/>
+      <c r="H203" s="29"/>
+      <c r="I203" s="29"/>
+      <c r="J203" s="29"/>
+      <c r="K203" s="29"/>
+      <c r="L203" s="29"/>
+      <c r="M203" s="29"/>
+      <c r="N203" s="29"/>
+      <c r="O203" s="29"/>
+      <c r="P203" s="29"/>
+      <c r="Q203" s="29"/>
+    </row>
+    <row r="204" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C204" s="29"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="29"/>
+      <c r="F204" s="29"/>
+      <c r="G204" s="29"/>
+      <c r="H204" s="29"/>
+      <c r="I204" s="29"/>
+      <c r="J204" s="29"/>
+      <c r="K204" s="29"/>
+      <c r="L204" s="29"/>
+      <c r="M204" s="29"/>
+      <c r="N204" s="29"/>
+      <c r="O204" s="29"/>
+      <c r="P204" s="29"/>
+      <c r="Q204" s="29"/>
+    </row>
+    <row r="205" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C205" s="29"/>
+      <c r="D205" s="29"/>
+      <c r="E205" s="29"/>
+      <c r="F205" s="29"/>
+      <c r="G205" s="29"/>
+      <c r="H205" s="29"/>
+      <c r="I205" s="29"/>
+      <c r="J205" s="29"/>
+      <c r="K205" s="29"/>
+      <c r="L205" s="29"/>
+      <c r="M205" s="29"/>
+      <c r="N205" s="29"/>
+      <c r="O205" s="29"/>
+      <c r="P205" s="29"/>
+      <c r="Q205" s="29"/>
+    </row>
+    <row r="206" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C206" s="29"/>
+      <c r="D206" s="29"/>
+      <c r="E206" s="29"/>
+      <c r="F206" s="29"/>
+      <c r="G206" s="29"/>
+      <c r="H206" s="29"/>
+      <c r="I206" s="29"/>
+      <c r="J206" s="29"/>
+      <c r="K206" s="29"/>
+      <c r="L206" s="29"/>
+      <c r="M206" s="29"/>
+      <c r="N206" s="29"/>
+      <c r="O206" s="29"/>
+      <c r="P206" s="29"/>
+      <c r="Q206" s="29"/>
+    </row>
+    <row r="207" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C207" s="29"/>
+      <c r="D207" s="29"/>
+      <c r="E207" s="29"/>
+      <c r="F207" s="29"/>
+      <c r="G207" s="29"/>
+      <c r="H207" s="29"/>
+      <c r="I207" s="29"/>
+      <c r="J207" s="29"/>
+      <c r="K207" s="29"/>
+      <c r="L207" s="29"/>
+      <c r="M207" s="29"/>
+      <c r="N207" s="29"/>
+      <c r="O207" s="29"/>
+      <c r="P207" s="29"/>
+      <c r="Q207" s="29"/>
+    </row>
+    <row r="208" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C208" s="29"/>
+      <c r="D208" s="29"/>
+      <c r="E208" s="29"/>
+      <c r="F208" s="29"/>
+      <c r="G208" s="29"/>
+      <c r="H208" s="29"/>
+      <c r="I208" s="29"/>
+      <c r="J208" s="29"/>
+      <c r="K208" s="29"/>
+      <c r="L208" s="29"/>
+      <c r="M208" s="29"/>
+      <c r="N208" s="29"/>
+      <c r="O208" s="29"/>
+      <c r="P208" s="29"/>
+      <c r="Q208" s="29"/>
+    </row>
+    <row r="209" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C209" s="29"/>
+      <c r="D209" s="29"/>
+      <c r="E209" s="29"/>
+      <c r="F209" s="29"/>
+      <c r="G209" s="29"/>
+      <c r="H209" s="29"/>
+      <c r="I209" s="29"/>
+      <c r="J209" s="29"/>
+      <c r="K209" s="29"/>
+      <c r="L209" s="29"/>
+      <c r="M209" s="29"/>
+      <c r="N209" s="29"/>
+      <c r="O209" s="29"/>
+      <c r="P209" s="29"/>
+      <c r="Q209" s="29"/>
+    </row>
+    <row r="210" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C210" s="29"/>
+      <c r="D210" s="29"/>
+      <c r="E210" s="29"/>
+      <c r="F210" s="29"/>
+      <c r="G210" s="29"/>
+      <c r="H210" s="29"/>
+      <c r="I210" s="29"/>
+      <c r="J210" s="29"/>
+      <c r="K210" s="29"/>
+      <c r="L210" s="29"/>
+      <c r="M210" s="29"/>
+      <c r="N210" s="29"/>
+      <c r="O210" s="29"/>
+      <c r="P210" s="29"/>
+      <c r="Q210" s="29"/>
+    </row>
+    <row r="211" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C211" s="29"/>
+      <c r="D211" s="29"/>
+      <c r="E211" s="29"/>
+      <c r="F211" s="29"/>
+      <c r="G211" s="29"/>
+      <c r="H211" s="29"/>
+      <c r="I211" s="29"/>
+      <c r="J211" s="29"/>
+      <c r="K211" s="29"/>
+      <c r="L211" s="29"/>
+      <c r="M211" s="29"/>
+      <c r="N211" s="29"/>
+      <c r="O211" s="29"/>
+      <c r="P211" s="29"/>
+      <c r="Q211" s="29"/>
+    </row>
+    <row r="212" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C212" s="29"/>
+      <c r="D212" s="29"/>
+      <c r="E212" s="29"/>
+      <c r="F212" s="29"/>
+      <c r="G212" s="29"/>
+      <c r="H212" s="29"/>
+      <c r="I212" s="29"/>
+      <c r="J212" s="29"/>
+      <c r="K212" s="29"/>
+      <c r="L212" s="29"/>
+      <c r="M212" s="29"/>
+      <c r="N212" s="29"/>
+      <c r="O212" s="29"/>
+      <c r="P212" s="29"/>
+      <c r="Q212" s="29"/>
+    </row>
+    <row r="213" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C213" s="29"/>
+      <c r="D213" s="29"/>
+      <c r="E213" s="29"/>
+      <c r="F213" s="29"/>
+      <c r="G213" s="29"/>
+      <c r="H213" s="29"/>
+      <c r="I213" s="29"/>
+      <c r="J213" s="29"/>
+      <c r="K213" s="29"/>
+      <c r="L213" s="29"/>
+      <c r="M213" s="29"/>
+      <c r="N213" s="29"/>
+      <c r="O213" s="29"/>
+      <c r="P213" s="29"/>
+      <c r="Q213" s="29"/>
+    </row>
+    <row r="214" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C214" s="29"/>
+      <c r="D214" s="29"/>
+      <c r="E214" s="29"/>
+      <c r="F214" s="29"/>
+      <c r="G214" s="29"/>
+      <c r="H214" s="29"/>
+      <c r="I214" s="29"/>
+      <c r="J214" s="29"/>
+      <c r="K214" s="29"/>
+      <c r="L214" s="29"/>
+      <c r="M214" s="29"/>
+      <c r="N214" s="29"/>
+      <c r="O214" s="29"/>
+      <c r="P214" s="29"/>
+      <c r="Q214" s="29"/>
+    </row>
+    <row r="215" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C215" s="29"/>
+      <c r="D215" s="29"/>
+      <c r="E215" s="29"/>
+      <c r="F215" s="29"/>
+      <c r="G215" s="29"/>
+      <c r="H215" s="29"/>
+      <c r="I215" s="29"/>
+      <c r="J215" s="29"/>
+      <c r="K215" s="29"/>
+      <c r="L215" s="29"/>
+      <c r="M215" s="29"/>
+      <c r="N215" s="29"/>
+      <c r="O215" s="29"/>
+      <c r="P215" s="29"/>
+      <c r="Q215" s="29"/>
+    </row>
+    <row r="216" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C216" s="29"/>
+      <c r="D216" s="29"/>
+      <c r="E216" s="29"/>
+      <c r="F216" s="29"/>
+      <c r="G216" s="29"/>
+      <c r="H216" s="29"/>
+      <c r="I216" s="29"/>
+      <c r="J216" s="29"/>
+      <c r="K216" s="29"/>
+      <c r="L216" s="29"/>
+      <c r="M216" s="29"/>
+      <c r="N216" s="29"/>
+      <c r="O216" s="29"/>
+      <c r="P216" s="29"/>
+      <c r="Q216" s="29"/>
+    </row>
+    <row r="217" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C217" s="29"/>
+      <c r="D217" s="29"/>
+      <c r="E217" s="29"/>
+      <c r="F217" s="29"/>
+      <c r="G217" s="29"/>
+      <c r="H217" s="29"/>
+      <c r="I217" s="29"/>
+      <c r="J217" s="29"/>
+      <c r="K217" s="29"/>
+      <c r="L217" s="29"/>
+      <c r="M217" s="29"/>
+      <c r="N217" s="29"/>
+      <c r="O217" s="29"/>
+      <c r="P217" s="29"/>
+      <c r="Q217" s="29"/>
+    </row>
+    <row r="218" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C218" s="29"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="29"/>
+      <c r="F218" s="29"/>
+      <c r="G218" s="29"/>
+      <c r="H218" s="29"/>
+      <c r="I218" s="29"/>
+      <c r="J218" s="29"/>
+      <c r="K218" s="29"/>
+      <c r="L218" s="29"/>
+      <c r="M218" s="29"/>
+      <c r="N218" s="29"/>
+      <c r="O218" s="29"/>
+      <c r="P218" s="29"/>
+      <c r="Q218" s="29"/>
+    </row>
+    <row r="219" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C219" s="29"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="29"/>
+      <c r="F219" s="29"/>
+      <c r="G219" s="29"/>
+      <c r="H219" s="29"/>
+      <c r="I219" s="29"/>
+      <c r="J219" s="29"/>
+      <c r="K219" s="29"/>
+      <c r="L219" s="29"/>
+      <c r="M219" s="29"/>
+      <c r="N219" s="29"/>
+      <c r="O219" s="29"/>
+      <c r="P219" s="29"/>
+      <c r="Q219" s="29"/>
+    </row>
+    <row r="220" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C220" s="29"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="29"/>
+      <c r="F220" s="29"/>
+      <c r="G220" s="29"/>
+      <c r="H220" s="29"/>
+      <c r="I220" s="29"/>
+      <c r="J220" s="29"/>
+      <c r="K220" s="29"/>
+      <c r="L220" s="29"/>
+      <c r="M220" s="29"/>
+      <c r="N220" s="29"/>
+      <c r="O220" s="29"/>
+      <c r="P220" s="29"/>
+      <c r="Q220" s="29"/>
+    </row>
+    <row r="221" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C221" s="29"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="29"/>
+      <c r="F221" s="29"/>
+      <c r="G221" s="29"/>
+      <c r="H221" s="29"/>
+      <c r="I221" s="29"/>
+      <c r="J221" s="29"/>
+      <c r="K221" s="29"/>
+      <c r="L221" s="29"/>
+      <c r="M221" s="29"/>
+      <c r="N221" s="29"/>
+      <c r="O221" s="29"/>
+      <c r="P221" s="29"/>
+      <c r="Q221" s="29"/>
+    </row>
+    <row r="222" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C222" s="29"/>
+      <c r="D222" s="29"/>
+      <c r="E222" s="29"/>
+      <c r="F222" s="29"/>
+      <c r="G222" s="29"/>
+      <c r="H222" s="29"/>
+      <c r="I222" s="29"/>
+      <c r="J222" s="29"/>
+      <c r="K222" s="29"/>
+      <c r="L222" s="29"/>
+      <c r="M222" s="29"/>
+      <c r="N222" s="29"/>
+      <c r="O222" s="29"/>
+      <c r="P222" s="29"/>
+      <c r="Q222" s="29"/>
+    </row>
+    <row r="223" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C223" s="29"/>
+      <c r="D223" s="29"/>
+      <c r="E223" s="29"/>
+      <c r="F223" s="29"/>
+      <c r="G223" s="29"/>
+      <c r="H223" s="29"/>
+      <c r="I223" s="29"/>
+      <c r="J223" s="29"/>
+      <c r="K223" s="29"/>
+      <c r="L223" s="29"/>
+      <c r="M223" s="29"/>
+      <c r="N223" s="29"/>
+      <c r="O223" s="29"/>
+      <c r="P223" s="29"/>
+      <c r="Q223" s="29"/>
+    </row>
+    <row r="224" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C224" s="29"/>
+      <c r="D224" s="29"/>
+      <c r="E224" s="29"/>
+      <c r="F224" s="29"/>
+      <c r="G224" s="29"/>
+      <c r="H224" s="29"/>
+      <c r="I224" s="29"/>
+      <c r="J224" s="29"/>
+      <c r="K224" s="29"/>
+      <c r="L224" s="29"/>
+      <c r="M224" s="29"/>
+      <c r="N224" s="29"/>
+      <c r="O224" s="29"/>
+      <c r="P224" s="29"/>
+      <c r="Q224" s="29"/>
+    </row>
+    <row r="225" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C225" s="29"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="29"/>
+      <c r="F225" s="29"/>
+      <c r="G225" s="29"/>
+      <c r="H225" s="29"/>
+      <c r="I225" s="29"/>
+      <c r="J225" s="29"/>
+      <c r="K225" s="29"/>
+      <c r="L225" s="29"/>
+      <c r="M225" s="29"/>
+      <c r="N225" s="29"/>
+      <c r="O225" s="29"/>
+      <c r="P225" s="29"/>
+      <c r="Q225" s="29"/>
+    </row>
+    <row r="226" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C226" s="29"/>
+      <c r="D226" s="29"/>
+      <c r="E226" s="29"/>
+      <c r="F226" s="29"/>
+      <c r="G226" s="29"/>
+      <c r="H226" s="29"/>
+      <c r="I226" s="29"/>
+      <c r="J226" s="29"/>
+      <c r="K226" s="29"/>
+      <c r="L226" s="29"/>
+      <c r="M226" s="29"/>
+      <c r="N226" s="29"/>
+      <c r="O226" s="29"/>
+      <c r="P226" s="29"/>
+      <c r="Q226" s="29"/>
+    </row>
+    <row r="227" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C227" s="29"/>
+      <c r="D227" s="29"/>
+      <c r="E227" s="29"/>
+      <c r="F227" s="29"/>
+      <c r="G227" s="29"/>
+      <c r="H227" s="29"/>
+      <c r="I227" s="29"/>
+      <c r="J227" s="29"/>
+      <c r="K227" s="29"/>
+      <c r="L227" s="29"/>
+      <c r="M227" s="29"/>
+      <c r="N227" s="29"/>
+      <c r="O227" s="29"/>
+      <c r="P227" s="29"/>
+      <c r="Q227" s="29"/>
+    </row>
+    <row r="228" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C228" s="29"/>
+      <c r="D228" s="29"/>
+      <c r="E228" s="29"/>
+      <c r="F228" s="29"/>
+      <c r="G228" s="29"/>
+      <c r="H228" s="29"/>
+      <c r="I228" s="29"/>
+      <c r="J228" s="29"/>
+      <c r="K228" s="29"/>
+      <c r="L228" s="29"/>
+      <c r="M228" s="29"/>
+      <c r="N228" s="29"/>
+      <c r="O228" s="29"/>
+      <c r="P228" s="29"/>
+      <c r="Q228" s="29"/>
+    </row>
+    <row r="229" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C229" s="29"/>
+      <c r="D229" s="29"/>
+      <c r="E229" s="29"/>
+      <c r="F229" s="29"/>
+      <c r="G229" s="29"/>
+      <c r="H229" s="29"/>
+      <c r="I229" s="29"/>
+      <c r="J229" s="29"/>
+      <c r="K229" s="29"/>
+      <c r="L229" s="29"/>
+      <c r="M229" s="29"/>
+      <c r="N229" s="29"/>
+      <c r="O229" s="29"/>
+      <c r="P229" s="29"/>
+      <c r="Q229" s="29"/>
+    </row>
+    <row r="230" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C230" s="29"/>
+      <c r="D230" s="29"/>
+      <c r="E230" s="29"/>
+      <c r="F230" s="29"/>
+      <c r="G230" s="29"/>
+      <c r="H230" s="29"/>
+      <c r="I230" s="29"/>
+      <c r="J230" s="29"/>
+      <c r="K230" s="29"/>
+      <c r="L230" s="29"/>
+      <c r="M230" s="29"/>
+      <c r="N230" s="29"/>
+      <c r="O230" s="29"/>
+      <c r="P230" s="29"/>
+      <c r="Q230" s="29"/>
+    </row>
+    <row r="231" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C231" s="29"/>
+      <c r="D231" s="29"/>
+      <c r="E231" s="29"/>
+      <c r="F231" s="29"/>
+      <c r="G231" s="29"/>
+      <c r="H231" s="29"/>
+      <c r="I231" s="29"/>
+      <c r="J231" s="29"/>
+      <c r="K231" s="29"/>
+      <c r="L231" s="29"/>
+      <c r="M231" s="29"/>
+      <c r="N231" s="29"/>
+      <c r="O231" s="29"/>
+      <c r="P231" s="29"/>
+      <c r="Q231" s="29"/>
+    </row>
+    <row r="232" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C232" s="29"/>
+      <c r="D232" s="29"/>
+      <c r="E232" s="29"/>
+      <c r="F232" s="29"/>
+      <c r="G232" s="29"/>
+      <c r="H232" s="29"/>
+      <c r="I232" s="29"/>
+      <c r="J232" s="29"/>
+      <c r="K232" s="29"/>
+      <c r="L232" s="29"/>
+      <c r="M232" s="29"/>
+      <c r="N232" s="29"/>
+      <c r="O232" s="29"/>
+      <c r="P232" s="29"/>
+      <c r="Q232" s="29"/>
+    </row>
+    <row r="233" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C233" s="29"/>
+      <c r="D233" s="29"/>
+      <c r="E233" s="29"/>
+      <c r="F233" s="29"/>
+      <c r="G233" s="29"/>
+      <c r="H233" s="29"/>
+      <c r="I233" s="29"/>
+      <c r="J233" s="29"/>
+      <c r="K233" s="29"/>
+      <c r="L233" s="29"/>
+      <c r="M233" s="29"/>
+      <c r="N233" s="29"/>
+      <c r="O233" s="29"/>
+      <c r="P233" s="29"/>
+      <c r="Q233" s="29"/>
+    </row>
+    <row r="234" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C234" s="29"/>
+      <c r="D234" s="29"/>
+      <c r="E234" s="29"/>
+      <c r="F234" s="29"/>
+      <c r="G234" s="29"/>
+      <c r="H234" s="29"/>
+      <c r="I234" s="29"/>
+      <c r="J234" s="29"/>
+      <c r="K234" s="29"/>
+      <c r="L234" s="29"/>
+      <c r="M234" s="29"/>
+      <c r="N234" s="29"/>
+      <c r="O234" s="29"/>
+      <c r="P234" s="29"/>
+      <c r="Q234" s="29"/>
+    </row>
+    <row r="235" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C235" s="29"/>
+      <c r="D235" s="29"/>
+      <c r="E235" s="29"/>
+      <c r="F235" s="29"/>
+      <c r="G235" s="29"/>
+      <c r="H235" s="29"/>
+      <c r="I235" s="29"/>
+      <c r="J235" s="29"/>
+      <c r="K235" s="29"/>
+      <c r="L235" s="29"/>
+      <c r="M235" s="29"/>
+      <c r="N235" s="29"/>
+      <c r="O235" s="29"/>
+      <c r="P235" s="29"/>
+      <c r="Q235" s="29"/>
+    </row>
+    <row r="236" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C236" s="29"/>
+      <c r="D236" s="29"/>
+      <c r="E236" s="29"/>
+      <c r="F236" s="29"/>
+      <c r="G236" s="29"/>
+      <c r="H236" s="29"/>
+      <c r="I236" s="29"/>
+      <c r="J236" s="29"/>
+      <c r="K236" s="29"/>
+      <c r="L236" s="29"/>
+      <c r="M236" s="29"/>
+      <c r="N236" s="29"/>
+      <c r="O236" s="29"/>
+      <c r="P236" s="29"/>
+      <c r="Q236" s="29"/>
+    </row>
+    <row r="237" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C237" s="29"/>
+      <c r="D237" s="29"/>
+      <c r="E237" s="29"/>
+      <c r="F237" s="29"/>
+      <c r="G237" s="29"/>
+      <c r="H237" s="29"/>
+      <c r="I237" s="29"/>
+      <c r="J237" s="29"/>
+      <c r="K237" s="29"/>
+      <c r="L237" s="29"/>
+      <c r="M237" s="29"/>
+      <c r="N237" s="29"/>
+      <c r="O237" s="29"/>
+      <c r="P237" s="29"/>
+      <c r="Q237" s="29"/>
+    </row>
+    <row r="238" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C238" s="29"/>
+      <c r="D238" s="29"/>
+      <c r="E238" s="29"/>
+      <c r="F238" s="29"/>
+      <c r="G238" s="29"/>
+      <c r="H238" s="29"/>
+      <c r="I238" s="29"/>
+      <c r="J238" s="29"/>
+      <c r="K238" s="29"/>
+      <c r="L238" s="29"/>
+      <c r="M238" s="29"/>
+      <c r="N238" s="29"/>
+      <c r="O238" s="29"/>
+      <c r="P238" s="29"/>
+      <c r="Q238" s="29"/>
+    </row>
+    <row r="239" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C239" s="29"/>
+      <c r="D239" s="29"/>
+      <c r="E239" s="29"/>
+      <c r="F239" s="29"/>
+      <c r="G239" s="29"/>
+      <c r="H239" s="29"/>
+      <c r="I239" s="29"/>
+      <c r="J239" s="29"/>
+      <c r="K239" s="29"/>
+      <c r="L239" s="29"/>
+      <c r="M239" s="29"/>
+      <c r="N239" s="29"/>
+      <c r="O239" s="29"/>
+      <c r="P239" s="29"/>
+      <c r="Q239" s="29"/>
+    </row>
+    <row r="240" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C240" s="29"/>
+      <c r="D240" s="29"/>
+      <c r="E240" s="29"/>
+      <c r="F240" s="29"/>
+      <c r="G240" s="29"/>
+      <c r="H240" s="29"/>
+      <c r="I240" s="29"/>
+      <c r="J240" s="29"/>
+      <c r="K240" s="29"/>
+      <c r="L240" s="29"/>
+      <c r="M240" s="29"/>
+      <c r="N240" s="29"/>
+      <c r="O240" s="29"/>
+      <c r="P240" s="29"/>
+      <c r="Q240" s="29"/>
+    </row>
+    <row r="241" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C241" s="29"/>
+      <c r="D241" s="29"/>
+      <c r="E241" s="29"/>
+      <c r="F241" s="29"/>
+      <c r="G241" s="29"/>
+      <c r="H241" s="29"/>
+      <c r="I241" s="29"/>
+      <c r="J241" s="29"/>
+      <c r="K241" s="29"/>
+      <c r="L241" s="29"/>
+      <c r="M241" s="29"/>
+      <c r="N241" s="29"/>
+      <c r="O241" s="29"/>
+      <c r="P241" s="29"/>
+      <c r="Q241" s="29"/>
+    </row>
+    <row r="242" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C242" s="29"/>
+      <c r="D242" s="29"/>
+      <c r="E242" s="29"/>
+      <c r="F242" s="29"/>
+      <c r="G242" s="29"/>
+      <c r="H242" s="29"/>
+      <c r="I242" s="29"/>
+      <c r="J242" s="29"/>
+      <c r="K242" s="29"/>
+      <c r="L242" s="29"/>
+      <c r="M242" s="29"/>
+      <c r="N242" s="29"/>
+      <c r="O242" s="29"/>
+      <c r="P242" s="29"/>
+      <c r="Q242" s="29"/>
+    </row>
+    <row r="243" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C243" s="29"/>
+      <c r="D243" s="29"/>
+      <c r="E243" s="29"/>
+      <c r="F243" s="29"/>
+      <c r="G243" s="29"/>
+      <c r="H243" s="29"/>
+      <c r="I243" s="29"/>
+      <c r="J243" s="29"/>
+      <c r="K243" s="29"/>
+      <c r="L243" s="29"/>
+      <c r="M243" s="29"/>
+      <c r="N243" s="29"/>
+      <c r="O243" s="29"/>
+      <c r="P243" s="29"/>
+      <c r="Q243" s="29"/>
+    </row>
+    <row r="244" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C244" s="29"/>
+      <c r="D244" s="29"/>
+      <c r="E244" s="29"/>
+      <c r="F244" s="29"/>
+      <c r="G244" s="29"/>
+      <c r="H244" s="29"/>
+      <c r="I244" s="29"/>
+      <c r="J244" s="29"/>
+      <c r="K244" s="29"/>
+      <c r="L244" s="29"/>
+      <c r="M244" s="29"/>
+      <c r="N244" s="29"/>
+      <c r="O244" s="29"/>
+      <c r="P244" s="29"/>
+      <c r="Q244" s="29"/>
+    </row>
+    <row r="245" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C245" s="29"/>
+      <c r="D245" s="29"/>
+      <c r="E245" s="29"/>
+      <c r="F245" s="29"/>
+      <c r="G245" s="29"/>
+      <c r="H245" s="29"/>
+      <c r="I245" s="29"/>
+      <c r="J245" s="29"/>
+      <c r="K245" s="29"/>
+      <c r="L245" s="29"/>
+      <c r="M245" s="29"/>
+      <c r="N245" s="29"/>
+      <c r="O245" s="29"/>
+      <c r="P245" s="29"/>
+      <c r="Q245" s="29"/>
+    </row>
+    <row r="246" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C246" s="29"/>
+      <c r="D246" s="29"/>
+      <c r="E246" s="29"/>
+      <c r="F246" s="29"/>
+      <c r="G246" s="29"/>
+      <c r="H246" s="29"/>
+      <c r="I246" s="29"/>
+      <c r="J246" s="29"/>
+      <c r="K246" s="29"/>
+      <c r="L246" s="29"/>
+      <c r="M246" s="29"/>
+      <c r="N246" s="29"/>
+      <c r="O246" s="29"/>
+      <c r="P246" s="29"/>
+      <c r="Q246" s="29"/>
+    </row>
+    <row r="247" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C247" s="29"/>
+      <c r="D247" s="29"/>
+      <c r="E247" s="29"/>
+      <c r="F247" s="29"/>
+      <c r="G247" s="29"/>
+      <c r="H247" s="29"/>
+      <c r="I247" s="29"/>
+      <c r="J247" s="29"/>
+      <c r="K247" s="29"/>
+      <c r="L247" s="29"/>
+      <c r="M247" s="29"/>
+      <c r="N247" s="29"/>
+      <c r="O247" s="29"/>
+      <c r="P247" s="29"/>
+      <c r="Q247" s="29"/>
+    </row>
+    <row r="248" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C248" s="29"/>
+      <c r="D248" s="29"/>
+      <c r="E248" s="29"/>
+      <c r="F248" s="29"/>
+      <c r="G248" s="29"/>
+      <c r="H248" s="29"/>
+      <c r="I248" s="29"/>
+      <c r="J248" s="29"/>
+      <c r="K248" s="29"/>
+      <c r="L248" s="29"/>
+      <c r="M248" s="29"/>
+      <c r="N248" s="29"/>
+      <c r="O248" s="29"/>
+      <c r="P248" s="29"/>
+      <c r="Q248" s="29"/>
+    </row>
+    <row r="249" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C249" s="29"/>
+      <c r="E249" s="29"/>
+      <c r="F249" s="29"/>
+      <c r="G249" s="29"/>
+      <c r="H249" s="29"/>
+      <c r="I249" s="29"/>
+      <c r="J249" s="29"/>
+      <c r="K249" s="29"/>
+      <c r="L249" s="29"/>
+      <c r="M249" s="29"/>
+      <c r="N249" s="29"/>
+      <c r="O249" s="29"/>
+      <c r="P249" s="29"/>
+      <c r="Q249" s="29"/>
+    </row>
+    <row r="250" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C250" s="29"/>
+      <c r="E250" s="29"/>
+      <c r="F250" s="29"/>
+      <c r="G250" s="29"/>
+      <c r="H250" s="29"/>
+      <c r="I250" s="29"/>
+      <c r="J250" s="29"/>
+      <c r="K250" s="29"/>
+      <c r="L250" s="29"/>
+      <c r="M250" s="29"/>
+      <c r="N250" s="29"/>
+      <c r="O250" s="29"/>
+      <c r="P250" s="29"/>
+      <c r="Q250" s="29"/>
+    </row>
+    <row r="251" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C251" s="29"/>
+      <c r="E251" s="29"/>
+      <c r="F251" s="29"/>
+      <c r="G251" s="29"/>
+      <c r="H251" s="29"/>
+      <c r="I251" s="29"/>
+      <c r="J251" s="29"/>
+      <c r="K251" s="29"/>
+      <c r="L251" s="29"/>
+      <c r="M251" s="29"/>
+      <c r="N251" s="29"/>
+      <c r="O251" s="29"/>
+      <c r="P251" s="29"/>
+      <c r="Q251" s="29"/>
+    </row>
+    <row r="252" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C252" s="29"/>
+      <c r="E252" s="29"/>
+      <c r="F252" s="29"/>
+      <c r="G252" s="29"/>
+      <c r="H252" s="29"/>
+      <c r="I252" s="29"/>
+      <c r="J252" s="29"/>
+      <c r="K252" s="29"/>
+      <c r="L252" s="29"/>
+      <c r="M252" s="29"/>
+      <c r="N252" s="29"/>
+      <c r="O252" s="29"/>
+      <c r="P252" s="29"/>
+      <c r="Q252" s="29"/>
+    </row>
+    <row r="253" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C253" s="29"/>
+      <c r="E253" s="29"/>
+      <c r="F253" s="29"/>
+      <c r="G253" s="29"/>
+      <c r="H253" s="29"/>
+      <c r="I253" s="29"/>
+      <c r="J253" s="29"/>
+      <c r="K253" s="29"/>
+      <c r="L253" s="29"/>
+      <c r="M253" s="29"/>
+      <c r="N253" s="29"/>
+      <c r="O253" s="29"/>
+      <c r="P253" s="29"/>
+      <c r="Q253" s="29"/>
+    </row>
+    <row r="254" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C254" s="29"/>
+      <c r="E254" s="29"/>
+      <c r="F254" s="29"/>
+      <c r="G254" s="29"/>
+      <c r="H254" s="29"/>
+      <c r="I254" s="29"/>
+      <c r="J254" s="29"/>
+      <c r="K254" s="29"/>
+      <c r="L254" s="29"/>
+      <c r="M254" s="29"/>
+      <c r="N254" s="29"/>
+      <c r="O254" s="29"/>
+      <c r="P254" s="29"/>
+      <c r="Q254" s="29"/>
+    </row>
+    <row r="255" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C255" s="29"/>
+      <c r="E255" s="29"/>
+      <c r="F255" s="29"/>
+      <c r="G255" s="29"/>
+      <c r="H255" s="29"/>
+      <c r="I255" s="29"/>
+      <c r="J255" s="29"/>
+      <c r="K255" s="29"/>
+      <c r="L255" s="29"/>
+      <c r="M255" s="29"/>
+      <c r="N255" s="29"/>
+      <c r="O255" s="29"/>
+      <c r="P255" s="29"/>
+      <c r="Q255" s="29"/>
+    </row>
+    <row r="256" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C256" s="29"/>
+      <c r="E256" s="29"/>
+      <c r="F256" s="29"/>
+      <c r="G256" s="29"/>
+      <c r="H256" s="29"/>
+      <c r="I256" s="29"/>
+      <c r="J256" s="29"/>
+      <c r="K256" s="29"/>
+      <c r="L256" s="29"/>
+      <c r="M256" s="29"/>
+      <c r="N256" s="29"/>
+      <c r="O256" s="29"/>
+      <c r="P256" s="29"/>
+      <c r="Q256" s="29"/>
+    </row>
+    <row r="257" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C257" s="29"/>
+      <c r="E257" s="29"/>
+      <c r="F257" s="29"/>
+      <c r="G257" s="29"/>
+      <c r="H257" s="29"/>
+      <c r="I257" s="29"/>
+      <c r="J257" s="29"/>
+      <c r="K257" s="29"/>
+      <c r="L257" s="29"/>
+      <c r="M257" s="29"/>
+      <c r="N257" s="29"/>
+      <c r="O257" s="29"/>
+      <c r="P257" s="29"/>
+      <c r="Q257" s="29"/>
+    </row>
+    <row r="258" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C258" s="29"/>
+      <c r="E258" s="29"/>
+      <c r="F258" s="29"/>
+      <c r="G258" s="29"/>
+      <c r="H258" s="29"/>
+      <c r="I258" s="29"/>
+      <c r="J258" s="29"/>
+      <c r="K258" s="29"/>
+      <c r="L258" s="29"/>
+      <c r="M258" s="29"/>
+      <c r="N258" s="29"/>
+      <c r="O258" s="29"/>
+      <c r="P258" s="29"/>
+      <c r="Q258" s="29"/>
+    </row>
+    <row r="259" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C259" s="29"/>
+      <c r="E259" s="29"/>
+      <c r="F259" s="29"/>
+      <c r="G259" s="29"/>
+      <c r="H259" s="29"/>
+      <c r="I259" s="29"/>
+      <c r="J259" s="29"/>
+      <c r="K259" s="29"/>
+      <c r="L259" s="29"/>
+      <c r="M259" s="29"/>
+      <c r="N259" s="29"/>
+      <c r="O259" s="29"/>
+      <c r="P259" s="29"/>
+      <c r="Q259" s="29"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E36" r:id="rId1" location="overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E137"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="70" style="67" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:5" s="33" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3" spans="1:5" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+    </row>
+    <row r="4" spans="1:5" s="33" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="C6" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
+      <c r="D7" s="67" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
+      <c r="C8" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
+      <c r="C9" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="C10" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+    </row>
+    <row r="11" spans="1:5" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="61" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="61"/>
+      <c r="D12" s="68" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
+      <c r="C13" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="61"/>
+      <c r="D14" s="67" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="D15" s="67" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
+      <c r="C16" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
+      <c r="C17" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="61"/>
+      <c r="C18" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27" t="s">
+    </row>
+    <row r="19" spans="1:4" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="27" t="s">
+    <row r="20" spans="1:4" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="27" t="s">
+    <row r="21" spans="1:4" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+    <row r="22" spans="1:4" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="61" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="26" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="C23" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="27" t="s">
+    </row>
+    <row r="24" spans="1:4" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="26" t="s">
+    <row r="25" spans="1:4" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
+      <c r="C26" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="C22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="61"/>
+      <c r="C27" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="D28" s="67" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="27" t="s">
+    <row r="29" spans="1:4" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="61"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="61"/>
+      <c r="D30" s="67" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="26" t="s">
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
+      <c r="D31" s="68" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="26" t="s">
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="61"/>
+      <c r="C32" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C33" s="68" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="26" t="s">
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="61"/>
+      <c r="D34" s="68" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="26" t="s">
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="61"/>
+      <c r="D35" s="68" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="26" t="s">
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="61"/>
+      <c r="C36" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="26" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="61"/>
+      <c r="D37" s="68" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="26" t="s">
+    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="61"/>
+      <c r="D38" s="68" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="26" t="s">
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="61"/>
+      <c r="D39" s="68" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="26" t="s">
+    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="61"/>
+      <c r="D40" s="68" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="26" t="s">
+    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="61"/>
+      <c r="D41" s="68" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="26" t="s">
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="61"/>
+      <c r="D42" s="68" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="26" t="s">
+    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="61"/>
+      <c r="D43" s="68" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="61" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="45" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="61"/>
+      <c r="C45" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="26" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="61"/>
+      <c r="C46" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="61"/>
+      <c r="D47" s="67" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="26" t="s">
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="61"/>
+      <c r="D48" s="68" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="26" t="s">
+    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="61"/>
+    </row>
+    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="61"/>
+      <c r="D50" s="68" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="26" t="s">
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="61"/>
+      <c r="D51" s="68" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="26" t="s">
+    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="D52" s="68" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="26" t="s">
+    <row r="53" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="61"/>
+      <c r="C53" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
+    </row>
+    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="61" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="26" t="s">
+    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="61"/>
+      <c r="D55" s="68" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="26" t="s">
+    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="61"/>
+      <c r="C56" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="C52" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="26" t="s">
+    </row>
+    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="61"/>
+      <c r="D57" s="68" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="26" t="s">
+    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="26" t="s">
+    <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="61"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="26" t="s">
+    <row r="60" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="61"/>
+      <c r="C60" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="26" t="s">
+    </row>
+    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="61"/>
+      <c r="D61" s="68" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="26" t="s">
+    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="61"/>
+      <c r="C62" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="26" t="s">
+    </row>
+    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="61"/>
+      <c r="D63" s="68" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="26" t="s">
+    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="61"/>
+      <c r="D64" s="68" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="26" t="s">
+    <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="61"/>
+      <c r="D65" s="68" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="26" t="s">
+    <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="61"/>
+      <c r="D66" s="68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="26" t="s">
+    <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="61"/>
+      <c r="D67" s="68" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="26" t="s">
+    <row r="68" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="61"/>
+      <c r="D68" s="68" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="26" t="s">
+    <row r="69" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="61"/>
+      <c r="D69" s="68" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="26" t="s">
+    <row r="70" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="61"/>
+      <c r="D70" s="68" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="26" t="s">
+    <row r="71" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="61"/>
+      <c r="D71" s="68" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="72" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="61"/>
+      <c r="D72" s="67" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="61"/>
+      <c r="D73" s="67" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+    <row r="74" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="61"/>
+      <c r="D74" s="67" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+    <row r="75" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="61"/>
+      <c r="D75" s="67" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+    <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" s="61"/>
+      <c r="D76" s="67" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+    <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="61"/>
+      <c r="C77" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="C73" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    </row>
+    <row r="78" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="61"/>
+      <c r="C78" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="C74" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+    </row>
+    <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="61"/>
+      <c r="D79" s="67" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+    <row r="80" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="61"/>
+      <c r="D80" s="67" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+    <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="61"/>
+      <c r="D81" s="67" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="61"/>
+      <c r="D82" s="67" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="61" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="61"/>
+      <c r="D84" s="67" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="61"/>
+      <c r="D85" s="67" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
+    <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="61"/>
+      <c r="C86" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="C82" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+    </row>
+    <row r="87" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="61"/>
+      <c r="D87" s="67" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="61"/>
+      <c r="C88" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C84" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    </row>
+    <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="61"/>
+      <c r="D89" s="67" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="B86" s="29" t="s">
+    <row r="90" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="61"/>
+      <c r="D90" s="66" t="s">
         <v>209</v>
       </c>
     </row>
+    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="61"/>
+    </row>
+    <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="61"/>
+    </row>
+    <row r="93" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="61"/>
+    </row>
+    <row r="94" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="61"/>
+    </row>
+    <row r="95" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="61"/>
+    </row>
+    <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="61"/>
+    </row>
+    <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="61"/>
+    </row>
+    <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="61"/>
+    </row>
+    <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="61"/>
+    </row>
+    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" s="61"/>
+    </row>
+    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="61"/>
+    </row>
+    <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="61"/>
+    </row>
+    <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="61"/>
+    </row>
+    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="61"/>
+    </row>
+    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="61"/>
+    </row>
+    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="61"/>
+    </row>
+    <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="61"/>
+    </row>
+    <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A108" s="61"/>
+    </row>
+    <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109" s="61"/>
+    </row>
+    <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110" s="61"/>
+    </row>
+    <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A111" s="61"/>
+    </row>
+    <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A112" s="61"/>
+    </row>
+    <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A113" s="61"/>
+    </row>
+    <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A114" s="61"/>
+    </row>
+    <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A115" s="61"/>
+    </row>
+    <row r="116" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A116" s="61"/>
+    </row>
+    <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A117" s="61"/>
+    </row>
+    <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118" s="61"/>
+    </row>
+    <row r="119" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A119" s="61"/>
+    </row>
+    <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A120" s="61"/>
+    </row>
+    <row r="121" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A121" s="61"/>
+    </row>
+    <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A122" s="61"/>
+    </row>
+    <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A123" s="61"/>
+    </row>
+    <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" s="61"/>
+    </row>
+    <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A125" s="61"/>
+    </row>
+    <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A126" s="61"/>
+    </row>
+    <row r="127" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A127" s="61"/>
+    </row>
+    <row r="128" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A128" s="61"/>
+    </row>
+    <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A129" s="61"/>
+    </row>
+    <row r="130" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A130" s="61"/>
+    </row>
+    <row r="131" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A131" s="61"/>
+    </row>
+    <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A132" s="61"/>
+    </row>
+    <row r="133" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A133" s="61"/>
+    </row>
+    <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A134" s="61"/>
+    </row>
+    <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A135" s="61"/>
+    </row>
+    <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A136" s="61"/>
+    </row>
+    <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A137" s="61"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" style="66" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" style="66" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="66" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:5" s="56" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+    </row>
+    <row r="4" spans="1:5" s="56" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="59" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+    </row>
+    <row r="8" spans="1:5" s="56" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>429</v>
+      </c>
+      <c r="E8" s="55"/>
+    </row>
+    <row r="9" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>430</v>
+      </c>
+      <c r="E9" s="55"/>
+    </row>
+    <row r="10" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" s="55"/>
+    </row>
+    <row r="11" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" s="55"/>
+    </row>
+    <row r="12" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63" t="s">
+        <v>436</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+    </row>
+    <row r="13" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63" t="s">
+        <v>437</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="E13" s="55"/>
+    </row>
+    <row r="14" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="63" t="s">
+        <v>439</v>
+      </c>
+      <c r="E14" s="55"/>
+    </row>
+    <row r="15" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>440</v>
+      </c>
+      <c r="E15" s="55"/>
+    </row>
+    <row r="16" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63" t="s">
+        <v>443</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>442</v>
+      </c>
+      <c r="E16" s="55"/>
+    </row>
+    <row r="17" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63" t="s">
+        <v>444</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>445</v>
+      </c>
+      <c r="E17" s="55"/>
+    </row>
+    <row r="18" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="63" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" s="55"/>
+    </row>
+    <row r="19" spans="1:5" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+    </row>
+    <row r="20" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="E22" s="55"/>
+    </row>
+    <row r="23" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="E23" s="55"/>
+    </row>
+    <row r="24" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="E24" s="55"/>
+    </row>
+    <row r="25" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61" t="s">
+        <v>455</v>
+      </c>
+      <c r="B25" s="62"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63" t="s">
+        <v>457</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="E26" s="55"/>
+    </row>
+    <row r="27" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55" t="s">
+        <v>459</v>
+      </c>
+      <c r="E27" s="55"/>
+    </row>
+    <row r="28" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="E28" s="55"/>
+    </row>
+    <row r="29" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63" t="s">
+        <v>460</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="E29" s="55"/>
+    </row>
+    <row r="30" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63" t="s">
+        <v>461</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>463</v>
+      </c>
+      <c r="E30" s="55"/>
+    </row>
+    <row r="31" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63" t="s">
+        <v>465</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="E31" s="55"/>
+    </row>
+    <row r="32" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="63" t="s">
+        <v>466</v>
+      </c>
+      <c r="E32" s="55"/>
+    </row>
+    <row r="33" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="63" t="s">
+        <v>467</v>
+      </c>
+      <c r="E33" s="55"/>
+    </row>
+    <row r="34" spans="1:5" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63" t="s">
+        <v>469</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="E34" s="55"/>
+    </row>
+    <row r="35" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63" t="s">
+        <v>475</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" s="55"/>
+    </row>
+    <row r="36" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63" t="s">
+        <v>472</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>473</v>
+      </c>
+      <c r="E36" s="55"/>
+    </row>
+    <row r="37" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="63" t="s">
+        <v>474</v>
+      </c>
+      <c r="E37" s="55"/>
+    </row>
+    <row r="38" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55" t="s">
+        <v>476</v>
+      </c>
+      <c r="E38" s="55"/>
+    </row>
+    <row r="39" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="E39" s="55"/>
+    </row>
+    <row r="40" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="63" t="s">
+        <v>478</v>
+      </c>
+      <c r="E40" s="55"/>
+    </row>
+    <row r="41" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="61"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="E41" s="55"/>
+    </row>
+    <row r="42" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="E42" s="55"/>
+    </row>
+    <row r="43" spans="1:5" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="E43" s="63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="61"/>
+      <c r="B44" s="62" t="s">
+        <v>488</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="E44" s="63" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="61"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="E45" s="55"/>
+    </row>
+    <row r="46" spans="1:5" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="61"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="D46" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="61"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="D47" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E47" s="55"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="64" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="65" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D50" s="66" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="69" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="68" t="s">
+        <v>502</v>
+      </c>
+      <c r="E52" s="69" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D53" s="68" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D54" s="68" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="68" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="69" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="65" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="69" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="69" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D62" s="66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D63" s="69" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D64" s="69" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="69" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="65" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="69" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="69" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C71" s="69" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" location="overview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/AgilePM/InductionDocument.xlsx
+++ b/AgilePM/InductionDocument.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -2114,17 +2114,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2154,9 +2143,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2183,6 +2169,20 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2633,31 +2633,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2731,7 +2731,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54:B54"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4227,7 +4227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -4315,7 +4315,7 @@
       <c r="V4" s="33"/>
       <c r="W4" s="33"/>
     </row>
-    <row r="5" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36" t="s">
@@ -4501,8 +4501,8 @@
       <c r="B12" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -4563,7 +4563,7 @@
       <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="1:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="51"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="39" t="s">
         <v>361</v>
       </c>
@@ -4583,7 +4583,7 @@
       <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="1:23" s="33" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="51"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="29" t="s">
         <v>362</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="Q16" s="29"/>
     </row>
     <row r="17" spans="2:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="51"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="29" t="s">
         <v>363</v>
       </c>
@@ -4622,8 +4622,8 @@
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
     </row>
-    <row r="18" spans="2:23" s="33" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="51"/>
+    <row r="18" spans="2:23" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="46"/>
       <c r="C18" s="29" t="s">
         <v>364</v>
       </c>
@@ -4642,8 +4642,8 @@
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
     </row>
-    <row r="19" spans="2:23" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="51"/>
+    <row r="19" spans="2:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B19" s="46"/>
       <c r="C19" s="29" t="s">
         <v>365</v>
       </c>
@@ -4663,7 +4663,7 @@
       <c r="Q19" s="29"/>
     </row>
     <row r="20" spans="2:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="51"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="29" t="s">
         <v>366</v>
       </c>
@@ -4683,7 +4683,7 @@
       <c r="Q20" s="29"/>
     </row>
     <row r="21" spans="2:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="51"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="29" t="s">
         <v>284</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="2:23" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B22" s="51"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="29" t="s">
         <v>288</v>
       </c>
@@ -4722,7 +4722,7 @@
       <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="2:23" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="51"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="29" t="s">
         <v>289</v>
       </c>
@@ -5001,7 +5001,7 @@
       <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="48" t="s">
         <v>394</v>
       </c>
       <c r="D35" s="29"/>
@@ -5023,9 +5023,9 @@
       <c r="B36" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="47" t="s">
         <v>417</v>
       </c>
       <c r="F36" s="29"/>
@@ -5122,7 +5122,7 @@
       <c r="Q40" s="29"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="49" t="s">
         <v>403</v>
       </c>
       <c r="C41" s="29"/>
@@ -8886,781 +8886,781 @@
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="70" style="67" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="61" customWidth="1"/>
+    <col min="4" max="4" width="70" style="61" customWidth="1"/>
     <col min="5" max="5" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" s="33" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="53" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="55" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="C6" s="67" t="s">
+      <c r="A6" s="55"/>
+      <c r="C6" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="61" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="D7" s="67" t="s">
+      <c r="A7" s="55"/>
+      <c r="D7" s="61" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="C8" s="67" t="s">
+      <c r="A8" s="55"/>
+      <c r="C8" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="62" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="C9" s="67" t="s">
+      <c r="A9" s="55"/>
+      <c r="C9" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="61" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="C10" s="67" t="s">
+      <c r="A10" s="55"/>
+      <c r="C10" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="61" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="D12" s="68" t="s">
+      <c r="A12" s="55"/>
+      <c r="D12" s="62" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="C13" s="67" t="s">
+      <c r="A13" s="55"/>
+      <c r="C13" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="D14" s="67" t="s">
+      <c r="A14" s="55"/>
+      <c r="D14" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="D15" s="67" t="s">
+      <c r="A15" s="55"/>
+      <c r="D15" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="C16" s="67" t="s">
+      <c r="A16" s="55"/>
+      <c r="C16" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="61" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="C17" s="67" t="s">
+      <c r="A17" s="55"/>
+      <c r="C17" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="61" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
-      <c r="C18" s="67" t="s">
+      <c r="A18" s="55"/>
+      <c r="C18" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67" t="s">
+      <c r="A19" s="55"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67" t="s">
+      <c r="A20" s="55"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67" t="s">
+      <c r="A21" s="55"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="C23" s="67" t="s">
+      <c r="A23" s="55"/>
+      <c r="C23" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="62" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67" t="s">
+      <c r="A24" s="55"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68" t="s">
+      <c r="A25" s="55"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="C26" s="67" t="s">
+      <c r="A26" s="55"/>
+      <c r="C26" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="61" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="C27" s="67" t="s">
+      <c r="A27" s="55"/>
+      <c r="C27" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="61" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="D28" s="67" t="s">
+      <c r="A28" s="55"/>
+      <c r="D28" s="61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67" t="s">
+      <c r="A29" s="55"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="D30" s="67" t="s">
+      <c r="A30" s="55"/>
+      <c r="D30" s="61" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="D31" s="68" t="s">
+      <c r="A31" s="55"/>
+      <c r="D31" s="62" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="C32" s="68" t="s">
+      <c r="A32" s="55"/>
+      <c r="C32" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="62" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="62" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
-      <c r="D34" s="68" t="s">
+      <c r="A34" s="55"/>
+      <c r="D34" s="62" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="D35" s="68" t="s">
+      <c r="A35" s="55"/>
+      <c r="D35" s="62" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
-      <c r="C36" s="68" t="s">
+      <c r="A36" s="55"/>
+      <c r="C36" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="62" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
-      <c r="D37" s="68" t="s">
+      <c r="A37" s="55"/>
+      <c r="D37" s="62" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="D38" s="68" t="s">
+      <c r="A38" s="55"/>
+      <c r="D38" s="62" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
-      <c r="D39" s="68" t="s">
+      <c r="A39" s="55"/>
+      <c r="D39" s="62" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="D40" s="68" t="s">
+      <c r="A40" s="55"/>
+      <c r="D40" s="62" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="D41" s="68" t="s">
+      <c r="A41" s="55"/>
+      <c r="D41" s="62" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
-      <c r="D42" s="68" t="s">
+      <c r="A42" s="55"/>
+      <c r="D42" s="62" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="D43" s="68" t="s">
+      <c r="A43" s="55"/>
+      <c r="D43" s="62" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="55" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
-      <c r="C45" s="69" t="s">
+      <c r="A45" s="55"/>
+      <c r="C45" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="C46" s="69" t="s">
+      <c r="A46" s="55"/>
+      <c r="C46" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="62" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
-      <c r="D47" s="67" t="s">
+      <c r="A47" s="55"/>
+      <c r="D47" s="61" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
-      <c r="D48" s="68" t="s">
+      <c r="A48" s="55"/>
+      <c r="D48" s="62" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="61"/>
+      <c r="A49" s="55"/>
     </row>
     <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
-      <c r="D50" s="68" t="s">
+      <c r="A50" s="55"/>
+      <c r="D50" s="62" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="61"/>
-      <c r="D51" s="68" t="s">
+      <c r="A51" s="55"/>
+      <c r="D51" s="62" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D52" s="62" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="61"/>
-      <c r="C53" s="69" t="s">
+      <c r="A53" s="55"/>
+      <c r="C53" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="D53" s="63" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="55" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="61"/>
-      <c r="D55" s="68" t="s">
+      <c r="A55" s="55"/>
+      <c r="D55" s="62" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
-      <c r="C56" s="68" t="s">
+      <c r="A56" s="55"/>
+      <c r="C56" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="D56" s="62" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="61"/>
-      <c r="D57" s="68" t="s">
+      <c r="A57" s="55"/>
+      <c r="D57" s="62" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="61" t="s">
+      <c r="A58" s="55" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69" t="s">
+      <c r="A59" s="55"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="61"/>
-      <c r="C60" s="69" t="s">
+      <c r="A60" s="55"/>
+      <c r="C60" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="69" t="s">
+      <c r="D60" s="63" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="61"/>
-      <c r="D61" s="68" t="s">
+      <c r="A61" s="55"/>
+      <c r="D61" s="62" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="61"/>
-      <c r="C62" s="68" t="s">
+      <c r="A62" s="55"/>
+      <c r="C62" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="68" t="s">
+      <c r="D62" s="62" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="61"/>
-      <c r="D63" s="68" t="s">
+      <c r="A63" s="55"/>
+      <c r="D63" s="62" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="61"/>
-      <c r="D64" s="68" t="s">
+      <c r="A64" s="55"/>
+      <c r="D64" s="62" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="61"/>
-      <c r="D65" s="68" t="s">
+      <c r="A65" s="55"/>
+      <c r="D65" s="62" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="61"/>
-      <c r="D66" s="68" t="s">
+      <c r="A66" s="55"/>
+      <c r="D66" s="62" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="61"/>
-      <c r="D67" s="68" t="s">
+      <c r="A67" s="55"/>
+      <c r="D67" s="62" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="61"/>
-      <c r="D68" s="68" t="s">
+      <c r="A68" s="55"/>
+      <c r="D68" s="62" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="61"/>
-      <c r="D69" s="68" t="s">
+      <c r="A69" s="55"/>
+      <c r="D69" s="62" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="61"/>
-      <c r="D70" s="68" t="s">
+      <c r="A70" s="55"/>
+      <c r="D70" s="62" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="61"/>
-      <c r="D71" s="68" t="s">
+      <c r="A71" s="55"/>
+      <c r="D71" s="62" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="61"/>
-      <c r="D72" s="67" t="s">
+      <c r="A72" s="55"/>
+      <c r="D72" s="61" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="61"/>
-      <c r="D73" s="67" t="s">
+      <c r="A73" s="55"/>
+      <c r="D73" s="61" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="61"/>
-      <c r="D74" s="67" t="s">
+      <c r="A74" s="55"/>
+      <c r="D74" s="61" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="61"/>
-      <c r="D75" s="67" t="s">
+      <c r="A75" s="55"/>
+      <c r="D75" s="61" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A76" s="61"/>
-      <c r="D76" s="67" t="s">
+      <c r="A76" s="55"/>
+      <c r="D76" s="61" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A77" s="61"/>
-      <c r="C77" s="67" t="s">
+      <c r="A77" s="55"/>
+      <c r="C77" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="D77" s="67" t="s">
+      <c r="D77" s="61" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A78" s="61"/>
-      <c r="C78" s="67" t="s">
+      <c r="A78" s="55"/>
+      <c r="C78" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="D78" s="67" t="s">
+      <c r="D78" s="61" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="61"/>
-      <c r="D79" s="67" t="s">
+      <c r="A79" s="55"/>
+      <c r="D79" s="61" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="61"/>
-      <c r="D80" s="67" t="s">
+      <c r="A80" s="55"/>
+      <c r="D80" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="61"/>
-      <c r="D81" s="67" t="s">
+      <c r="A81" s="55"/>
+      <c r="D81" s="61" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A82" s="61"/>
-      <c r="D82" s="67" t="s">
+      <c r="A82" s="55"/>
+      <c r="D82" s="61" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" s="61" t="s">
+      <c r="A83" s="55" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A84" s="61"/>
-      <c r="D84" s="67" t="s">
+      <c r="A84" s="55"/>
+      <c r="D84" s="61" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="61"/>
-      <c r="D85" s="67" t="s">
+      <c r="A85" s="55"/>
+      <c r="D85" s="61" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A86" s="61"/>
-      <c r="C86" s="67" t="s">
+      <c r="A86" s="55"/>
+      <c r="C86" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="D86" s="67" t="s">
+      <c r="D86" s="61" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A87" s="61"/>
-      <c r="D87" s="67" t="s">
+      <c r="A87" s="55"/>
+      <c r="D87" s="61" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="61"/>
-      <c r="C88" s="67" t="s">
+      <c r="A88" s="55"/>
+      <c r="C88" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="D88" s="67" t="s">
+      <c r="D88" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="61"/>
-      <c r="D89" s="67" t="s">
+      <c r="A89" s="55"/>
+      <c r="D89" s="61" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="61"/>
-      <c r="D90" s="66" t="s">
+    <row r="90" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A90" s="55"/>
+      <c r="D90" s="60" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="61"/>
+      <c r="A91" s="55"/>
     </row>
     <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="61"/>
+      <c r="A92" s="55"/>
     </row>
     <row r="93" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A93" s="61"/>
+      <c r="A93" s="55"/>
     </row>
     <row r="94" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="61"/>
+      <c r="A94" s="55"/>
     </row>
     <row r="95" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="61"/>
+      <c r="A95" s="55"/>
     </row>
     <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="61"/>
+      <c r="A96" s="55"/>
     </row>
     <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="61"/>
+      <c r="A97" s="55"/>
     </row>
     <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="61"/>
+      <c r="A98" s="55"/>
     </row>
     <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="61"/>
+      <c r="A99" s="55"/>
     </row>
     <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100" s="61"/>
+      <c r="A100" s="55"/>
     </row>
     <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="61"/>
+      <c r="A101" s="55"/>
     </row>
     <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="61"/>
+      <c r="A102" s="55"/>
     </row>
     <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="61"/>
+      <c r="A103" s="55"/>
     </row>
     <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A104" s="61"/>
+      <c r="A104" s="55"/>
     </row>
     <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="61"/>
+      <c r="A105" s="55"/>
     </row>
     <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A106" s="61"/>
+      <c r="A106" s="55"/>
     </row>
     <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A107" s="61"/>
+      <c r="A107" s="55"/>
     </row>
     <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A108" s="61"/>
+      <c r="A108" s="55"/>
     </row>
     <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A109" s="61"/>
+      <c r="A109" s="55"/>
     </row>
     <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A110" s="61"/>
+      <c r="A110" s="55"/>
     </row>
     <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A111" s="61"/>
+      <c r="A111" s="55"/>
     </row>
     <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A112" s="61"/>
+      <c r="A112" s="55"/>
     </row>
     <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A113" s="61"/>
+      <c r="A113" s="55"/>
     </row>
     <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A114" s="61"/>
+      <c r="A114" s="55"/>
     </row>
     <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A115" s="61"/>
+      <c r="A115" s="55"/>
     </row>
     <row r="116" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A116" s="61"/>
+      <c r="A116" s="55"/>
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A117" s="61"/>
+      <c r="A117" s="55"/>
     </row>
     <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A118" s="61"/>
+      <c r="A118" s="55"/>
     </row>
     <row r="119" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="61"/>
+      <c r="A119" s="55"/>
     </row>
     <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A120" s="61"/>
+      <c r="A120" s="55"/>
     </row>
     <row r="121" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A121" s="61"/>
+      <c r="A121" s="55"/>
     </row>
     <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A122" s="61"/>
+      <c r="A122" s="55"/>
     </row>
     <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A123" s="61"/>
+      <c r="A123" s="55"/>
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="61"/>
+      <c r="A124" s="55"/>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A125" s="61"/>
+      <c r="A125" s="55"/>
     </row>
     <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A126" s="61"/>
+      <c r="A126" s="55"/>
     </row>
     <row r="127" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A127" s="61"/>
+      <c r="A127" s="55"/>
     </row>
     <row r="128" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A128" s="61"/>
+      <c r="A128" s="55"/>
     </row>
     <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A129" s="61"/>
+      <c r="A129" s="55"/>
     </row>
     <row r="130" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A130" s="61"/>
+      <c r="A130" s="55"/>
     </row>
     <row r="131" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A131" s="61"/>
+      <c r="A131" s="55"/>
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A132" s="61"/>
+      <c r="A132" s="55"/>
     </row>
     <row r="133" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A133" s="61"/>
+      <c r="A133" s="55"/>
     </row>
     <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A134" s="61"/>
+      <c r="A134" s="55"/>
     </row>
     <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A135" s="61"/>
+      <c r="A135" s="55"/>
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A136" s="61"/>
+      <c r="A136" s="55"/>
     </row>
     <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A137" s="61"/>
+      <c r="A137" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9675,619 +9675,619 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="64.85546875" style="66" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" style="66" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="67"/>
+    <col min="1" max="1" width="9.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="60" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-    </row>
-    <row r="2" spans="1:5" s="56" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+    <row r="1" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" s="51" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="69" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-    </row>
-    <row r="3" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-    </row>
-    <row r="4" spans="1:5" s="56" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:5" s="51" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="53" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="55" t="s">
+    <row r="5" spans="1:5" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="50" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="54" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55" t="s">
+    <row r="6" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50" t="s">
         <v>481</v>
       </c>
-      <c r="E6" s="59"/>
-    </row>
-    <row r="7" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
+      <c r="E6" s="54"/>
+    </row>
+    <row r="7" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-    </row>
-    <row r="8" spans="1:5" s="56" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="57" t="s">
         <v>429</v>
       </c>
-      <c r="E8" s="55"/>
-    </row>
-    <row r="9" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63" t="s">
+      <c r="E8" s="50"/>
+    </row>
+    <row r="9" spans="1:5" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="57" t="s">
         <v>430</v>
       </c>
-      <c r="E9" s="55"/>
-    </row>
-    <row r="10" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63" t="s">
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57" t="s">
         <v>432</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="E10" s="55"/>
-    </row>
-    <row r="11" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63" t="s">
+      <c r="E10" s="50"/>
+    </row>
+    <row r="11" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="E11" s="55"/>
-    </row>
-    <row r="12" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63" t="s">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-    </row>
-    <row r="13" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63" t="s">
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="1:5" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57" t="s">
         <v>437</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="E13" s="55"/>
-    </row>
-    <row r="14" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="63" t="s">
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="1:5" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="57" t="s">
         <v>439</v>
       </c>
-      <c r="E14" s="55"/>
-    </row>
-    <row r="15" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63" t="s">
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="1:5" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="57" t="s">
         <v>440</v>
       </c>
-      <c r="E15" s="55"/>
-    </row>
-    <row r="16" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63" t="s">
+      <c r="E15" s="50"/>
+    </row>
+    <row r="16" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="57" t="s">
         <v>442</v>
       </c>
-      <c r="E16" s="55"/>
-    </row>
-    <row r="17" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63" t="s">
+      <c r="E16" s="50"/>
+    </row>
+    <row r="17" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57" t="s">
         <v>444</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="57" t="s">
         <v>445</v>
       </c>
-      <c r="E17" s="55"/>
-    </row>
-    <row r="18" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="63" t="s">
+      <c r="E17" s="50"/>
+    </row>
+    <row r="18" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="57" t="s">
         <v>446</v>
       </c>
-      <c r="E18" s="55"/>
-    </row>
-    <row r="19" spans="1:5" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63" t="s">
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="1:5" s="51" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63" t="s">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+    </row>
+    <row r="20" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="E20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63" t="s">
+      <c r="E20" s="50"/>
+    </row>
+    <row r="21" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57" t="s">
         <v>450</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="63" t="s">
+      <c r="E21" s="50"/>
+    </row>
+    <row r="22" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="57" t="s">
         <v>452</v>
       </c>
-      <c r="E22" s="55"/>
-    </row>
-    <row r="23" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55" t="s">
+      <c r="E22" s="50"/>
+    </row>
+    <row r="23" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="E23" s="55"/>
-    </row>
-    <row r="24" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="63" t="s">
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="57" t="s">
         <v>454</v>
       </c>
-      <c r="E24" s="55"/>
-    </row>
-    <row r="25" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="s">
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="55" t="s">
         <v>455</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="63" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="57" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63" t="s">
+    <row r="26" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="57" t="s">
         <v>458</v>
       </c>
-      <c r="E26" s="55"/>
-    </row>
-    <row r="27" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55" t="s">
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="E27" s="55"/>
-    </row>
-    <row r="28" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="63" t="s">
+      <c r="E27" s="50"/>
+    </row>
+    <row r="28" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="E28" s="55"/>
-    </row>
-    <row r="29" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63" t="s">
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="1:5" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57" t="s">
         <v>460</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="57" t="s">
         <v>462</v>
       </c>
-      <c r="E29" s="55"/>
-    </row>
-    <row r="30" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63" t="s">
+      <c r="E29" s="50"/>
+    </row>
+    <row r="30" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57" t="s">
         <v>461</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="57" t="s">
         <v>463</v>
       </c>
-      <c r="E30" s="55"/>
-    </row>
-    <row r="31" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63" t="s">
+      <c r="E30" s="50"/>
+    </row>
+    <row r="31" spans="1:5" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57" t="s">
         <v>465</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="57" t="s">
         <v>464</v>
       </c>
-      <c r="E31" s="55"/>
-    </row>
-    <row r="32" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="63" t="s">
+      <c r="E31" s="50"/>
+    </row>
+    <row r="32" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="E32" s="55"/>
-    </row>
-    <row r="33" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="63" t="s">
+      <c r="E32" s="50"/>
+    </row>
+    <row r="33" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="57" t="s">
         <v>467</v>
       </c>
-      <c r="E33" s="55"/>
-    </row>
-    <row r="34" spans="1:5" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63" t="s">
+      <c r="E33" s="50"/>
+    </row>
+    <row r="34" spans="1:5" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="55"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57" t="s">
         <v>469</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="E34" s="55"/>
-    </row>
-    <row r="35" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61" t="s">
+      <c r="E34" s="50"/>
+    </row>
+    <row r="35" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="55" t="s">
         <v>470</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63" t="s">
+      <c r="B35" s="56"/>
+      <c r="C35" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="57" t="s">
         <v>471</v>
       </c>
-      <c r="E35" s="55"/>
-    </row>
-    <row r="36" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63" t="s">
+      <c r="E35" s="50"/>
+    </row>
+    <row r="36" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="55"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57" t="s">
         <v>472</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="E36" s="55"/>
-    </row>
-    <row r="37" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="63" t="s">
+      <c r="E36" s="50"/>
+    </row>
+    <row r="37" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="55"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="E37" s="55"/>
-    </row>
-    <row r="38" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55" t="s">
+      <c r="E37" s="50"/>
+    </row>
+    <row r="38" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="55"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="E38" s="55"/>
-    </row>
-    <row r="39" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="63" t="s">
+      <c r="E38" s="50"/>
+    </row>
+    <row r="39" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="55"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="E39" s="55"/>
-    </row>
-    <row r="40" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="63" t="s">
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="55"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="E40" s="55"/>
-    </row>
-    <row r="41" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="55" t="s">
+      <c r="E40" s="50"/>
+    </row>
+    <row r="41" spans="1:5" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="50" t="s">
         <v>479</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="E41" s="55"/>
-    </row>
-    <row r="42" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="55" t="s">
+      <c r="E41" s="50"/>
+    </row>
+    <row r="42" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="50" t="s">
         <v>483</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="50" t="s">
         <v>482</v>
       </c>
-      <c r="E42" s="55"/>
-    </row>
-    <row r="43" spans="1:5" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="55" t="s">
+      <c r="E42" s="50"/>
+    </row>
+    <row r="43" spans="1:5" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="55"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="50" t="s">
         <v>484</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="50" t="s">
         <v>486</v>
       </c>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="57" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
-      <c r="B44" s="62" t="s">
+    <row r="44" spans="1:5" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="55"/>
+      <c r="B44" s="56" t="s">
         <v>488</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="57" t="s">
         <v>489</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="57" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="63" t="s">
+    <row r="45" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57" t="s">
         <v>491</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="57" t="s">
         <v>490</v>
       </c>
-      <c r="E45" s="55"/>
-    </row>
-    <row r="46" spans="1:5" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63" t="s">
+      <c r="E45" s="50"/>
+    </row>
+    <row r="46" spans="1:5" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="55"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="57" t="s">
         <v>494</v>
       </c>
-      <c r="E46" s="63" t="s">
+      <c r="E46" s="57" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63" t="s">
+    <row r="47" spans="1:5" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="55"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="D47" s="63" t="s">
+      <c r="D47" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="E47" s="55"/>
+      <c r="E47" s="50"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="58" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="59" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D50" s="66" t="s">
+      <c r="D50" s="60" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D51" s="69" t="s">
+      <c r="D51" s="63" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D52" s="68" t="s">
+      <c r="D52" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="E52" s="69" t="s">
+      <c r="E52" s="63" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="62" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D54" s="68" t="s">
+      <c r="D54" s="62" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D55" s="68" t="s">
+      <c r="D55" s="62" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D56" s="69" t="s">
+      <c r="D56" s="63" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="59" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D60" s="69" t="s">
+      <c r="D60" s="63" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D61" s="69" t="s">
+      <c r="D61" s="63" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D62" s="66" t="s">
+      <c r="D62" s="60" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D63" s="69" t="s">
+      <c r="D63" s="63" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D64" s="69" t="s">
+      <c r="D64" s="63" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D65" s="69" t="s">
+      <c r="D65" s="63" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="59" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="69" t="s">
+      <c r="C68" s="63" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C69" s="69" t="s">
+      <c r="C69" s="63" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="69" t="s">
+      <c r="C70" s="63" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C71" s="69" t="s">
+      <c r="C71" s="63" t="s">
         <v>517</v>
       </c>
     </row>
@@ -10308,8 +10308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
